--- a/tests/reference/reports/BeAScout_Quality_Report_anonymized.xlsx
+++ b/tests/reference/reports/BeAScout_Quality_Report_anonymized.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Quinapoxet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Soaring Eagle" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quinapoxet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Soaring Eagle" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -587,21 +587,21 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Generation Date/Time: September 08, 2025 at 09:28 AM</t>
+          <t>Generation Date/Time: 2025-09-25 20:13:49</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Data Sources: BeAScout.org (10-mile search radius per zip code) + JoinExploring.org (20-mile search radius per zip code) + Key 3 08-22-2025.xlsx</t>
+          <t>Data Sources: BeAScout.org (10-mile search radius per zip code) + JoinExploring.org (20-mile search radius per zip code) + anonymized_key_three.json</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Last Complete BeAScout Data Retrieval: September 05, 2025 at 12:03 AM</t>
+          <t>Last Complete BeAScout Data Retrieval: 2025-09-05 00:03:39</t>
         </is>
       </c>
     </row>
@@ -1013,21 +1013,21 @@
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>Generation Date/Time: September 08, 2025 at 09:28 AM</t>
+          <t>Generation Date/Time: 2025-09-25 20:13:49</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>Data Sources: BeAScout.org (10-mile search radius per zip code) + JoinExploring.org (20-mile search radius per zip code) + Key 3 08-22-2025.xlsx</t>
+          <t>Data Sources: BeAScout.org (10-mile search radius per zip code) + JoinExploring.org (20-mile search radius per zip code) + anonymized_key_three.json</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Last Complete BeAScout Data Retrieval: September 05, 2025 at 12:03 AM</t>
+          <t>Last Complete BeAScout Data Retrieval: 2025-09-05 00:03:39</t>
         </is>
       </c>
     </row>
@@ -1179,25 +1179,25 @@
       <c r="R10" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Helen Garcia
-helengarcia@icloud.com
-(339) 555-0971</t>
+Lisa N Parker
+lisaparker@msn.com
+(508) 555-6502</t>
         </is>
       </c>
       <c r="S10" s="14" t="inlineStr">
         <is>
           <t>Council Unit Representative
-Frances K Baker
-francesbaker@verizon.net
-(508) 555-3135</t>
+Joshua Ortiz
+joshua710@icloud.com
+(617) 555-0883</t>
         </is>
       </c>
       <c r="T10" s="14" t="inlineStr">
         <is>
           <t>Venturing Crew Advisor
-Joshua Cook
-joshua.cook97@comcast.net
-(339) 555-5447</t>
+Tyler B Thomas
+tthomas@aol.com
+(413) 555-2464</t>
         </is>
       </c>
     </row>
@@ -1240,25 +1240,25 @@
       <c r="R11" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Cynthia Anderson
-canderson@gmail.com
-(857) 555-7568</t>
+Kimberly Mendoza
+kimberlymendoza@hotmail.com
+(617) 555-2752</t>
         </is>
       </c>
       <c r="S11" s="14" t="inlineStr">
         <is>
           <t>Council Unit Representative
-Barbara Q Gomez
-barbara127@msn.com
-(781) 555-3418</t>
+Kenneth P Hernandez
+kenneth138@msn.com
+(978) 555-3324</t>
         </is>
       </c>
       <c r="T11" s="14" t="inlineStr">
         <is>
           <t>Venturing Crew Advisor
-Ashley Moore
-ashleymoore@gmail.com
-(351) 555-6541</t>
+Emma Price
+emma958@comcast.net
+(978) 555-7027</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       <c r="R12" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dennis X Young
-dennis.young13@gmail.com
-(774) 555-4587</t>
+Justin Sanchez
+justinsanchez@icloud.com
+(508) 555-6020</t>
         </is>
       </c>
       <c r="S12" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Steven Myers
-smyers@outlook.com
-(978) 555-9767</t>
+Justin Baker
+justin.baker@gmail.com
+(339) 555-2054</t>
         </is>
       </c>
       <c r="T12" s="14" t="inlineStr">
@@ -1377,25 +1377,25 @@
       <c r="R13" s="14" t="inlineStr">
         <is>
           <t>Associate Sponsor
-Janet Robinson
-jrobinson@verizon.net
-(617) 555-5662</t>
+Jessica Murphy
+jmurphy@msn.com
+(413) 555-2286</t>
         </is>
       </c>
       <c r="S13" s="14" t="inlineStr">
         <is>
           <t>Council Unit Representative
-Amy J Myers
-amy.myers@yahoo.com
-(781) 555-0478</t>
+Andrew Morris
+andrew.morris44@gmail.com
+(857) 555-8234</t>
         </is>
       </c>
       <c r="T13" s="14" t="inlineStr">
         <is>
           <t>Exploring Sponsor
-Janet King
-janet934@gmail.com
-(857) 555-1131</t>
+Steven Robinson
+steven.robinson@yahoo.com
+(351) 555-8793</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       <c r="R14" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jennifer Richardson
-jennifer.richardson69@aol.com
-(978) 555-2780</t>
+Kimberly U Evans
+kimberly.evans42@verizon.net
+(617) 555-3018</t>
         </is>
       </c>
       <c r="S14" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Stephen Garcia
-stephen.garcia@icloud.com
-(351) 555-9117</t>
+Patricia Garcia
+patricia.garcia@gmail.com
+(413) 555-7593</t>
         </is>
       </c>
       <c r="T14" s="14" t="inlineStr">
@@ -1537,25 +1537,25 @@
       <c r="R15" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Christopher A Adams
-christopher.adams88@aol.com
-(413) 555-5487</t>
+Aaron Chavez
+aaron442@outlook.com
+(774) 555-1473</t>
         </is>
       </c>
       <c r="S15" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Samuel Patel
-samuel.patel89@comcast.net
-(413) 555-1911</t>
+Robert K James
+robert.james@verizon.net
+(339) 555-7847</t>
         </is>
       </c>
       <c r="T15" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Deborah Nguyen
-deborahnguyen@aol.com
-(413) 555-7956</t>
+Eric T Powell
+epowell@outlook.com
+(617) 555-9241</t>
         </is>
       </c>
     </row>
@@ -1616,25 +1616,25 @@
       <c r="R16" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dennis Reed
-dreed@comcast.net
-(508) 555-7339</t>
+Emma Powell
+emma.powell@hotmail.com
+(781) 555-7919</t>
         </is>
       </c>
       <c r="S16" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Richard D Wilson
-richard64@hotmail.com
-(978) 555-7556</t>
+Michael Diaz
+mdiaz@aol.com
+(857) 555-2174</t>
         </is>
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Jose Martinez
-jose.martinez@live.com
-(351) 555-1523</t>
+Betty Richardson
+betty555@icloud.com
+(781) 555-0876</t>
         </is>
       </c>
     </row>
@@ -1698,17 +1698,17 @@
       <c r="R17" s="14" t="inlineStr">
         <is>
           <t>Explorer Post Advisor
-Aaron P Lee
-aaron.lee47@yahoo.com
-(413) 555-2333</t>
+Rachel Walker
+rachel.walker@comcast.net
+(774) 555-5330</t>
         </is>
       </c>
       <c r="S17" s="14" t="inlineStr">
         <is>
           <t>Post Committee Chair
-Betty Cooper
-bettycooper@gmail.com
-(508) 555-0649</t>
+Kevin D Kim
+kevin.kim@outlook.com
+(339) 555-9539</t>
         </is>
       </c>
       <c r="T17" s="14" t="inlineStr">
@@ -1774,17 +1774,17 @@
       <c r="R18" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Barbara Ward
-barbaraward@verizon.net
-(857) 555-7912</t>
+Charles Diaz
+charles.diaz63@msn.com
+(339) 555-4540</t>
         </is>
       </c>
       <c r="S18" s="14" t="inlineStr">
         <is>
           <t>Skipper
-Brenda M Cruz
-brenda.cruz@msn.com
-(857) 555-9596</t>
+Kevin Bailey
+kevin.bailey@icloud.com
+(781) 555-9738</t>
         </is>
       </c>
       <c r="T18" s="14" t="inlineStr">
@@ -1849,25 +1849,25 @@
       <c r="R19" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Janet Castillo
-janet.castillo59@outlook.com
-(774) 555-6392</t>
+Amy Hughes
+amy.hughes17@hotmail.com
+(857) 555-3013</t>
         </is>
       </c>
       <c r="S19" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jennifer Evans
-jennifer348@hotmail.com
-(351) 555-2748</t>
+William Q Martin
+william.martin67@gmail.com
+(617) 555-4342</t>
         </is>
       </c>
       <c r="T19" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Frances Morris
-frances.morris@outlook.com
-(857) 555-3131</t>
+Douglas Jimenez
+djimenez@live.com
+(351) 555-0795</t>
         </is>
       </c>
     </row>
@@ -1933,25 +1933,25 @@
       <c r="R20" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Sandra Walker
-swalker@outlook.com
-(781) 555-2587</t>
+Angela B Rogers
+angela.rogers2@yahoo.com
+(774) 555-1685</t>
         </is>
       </c>
       <c r="S20" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jose Watson
-josewatson@hotmail.com
-(339) 555-8819</t>
+Deborah Brown
+deborah.brown66@live.com
+(781) 555-7318</t>
         </is>
       </c>
       <c r="T20" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Donna Thompson
-donna.thompson34@verizon.net
-(857) 555-8316</t>
+Ruth Carter
+ruthcarter@aol.com
+(617) 555-7659</t>
         </is>
       </c>
     </row>
@@ -2024,25 +2024,25 @@
       <c r="R21" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Ryan J Bennett
-rbennett@icloud.com
-(508) 555-7007</t>
+Mary F Long
+mary817@live.com
+(978) 555-4933</t>
         </is>
       </c>
       <c r="S21" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Anthony Harris
-aharris@outlook.com
-(857) 555-0057</t>
+Andrew Nelson
+andrew.nelson@hotmail.com
+(413) 555-0833</t>
         </is>
       </c>
       <c r="T21" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Dorothy Jenkins
-dorothyjenkins@msn.com
-(413) 555-2291</t>
+Douglas G Price
+douglas.price26@hotmail.com
+(351) 555-2255</t>
         </is>
       </c>
     </row>
@@ -2115,25 +2115,25 @@
       <c r="R22" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Olivia Z Campbell
-oliviacampbell@aol.com
-(339) 555-3945</t>
+Scott Ruiz
+sruiz@aol.com
+(413) 555-4543</t>
         </is>
       </c>
       <c r="S22" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Amy Wilson
-amy339@outlook.com
-(508) 555-5341</t>
+David J Morris
+dmorris@yahoo.com
+(781) 555-0723</t>
         </is>
       </c>
       <c r="T22" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Jacob Johnson
-jacob.johnson28@gmail.com
-(774) 555-1442</t>
+Sandra Phillips
+sandra418@live.com
+(774) 555-7239</t>
         </is>
       </c>
     </row>
@@ -2206,25 +2206,25 @@
       <c r="R23" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Justin J Collins
-justin.collins70@gmail.com
-(978) 555-9587</t>
+Patricia S Martinez
+patriciamartinez@outlook.com
+(978) 555-1580</t>
         </is>
       </c>
       <c r="S23" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Samuel F Morgan
-smorgan@aol.com
-(857) 555-2842</t>
+Nancy Jenkins
+nancy581@gmail.com
+(508) 555-6241</t>
         </is>
       </c>
       <c r="T23" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Frances Rivera
-frivera@aol.com
-(351) 555-8707</t>
+Douglas Mitchell
+douglasmitchell@outlook.com
+(351) 555-5543</t>
         </is>
       </c>
     </row>
@@ -2295,25 +2295,25 @@
       <c r="R24" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Frances Young
-frances.young51@outlook.com
-(413) 555-3895</t>
+Andrew Watson
+awatson@hotmail.com
+(351) 555-9834</t>
         </is>
       </c>
       <c r="S24" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Eric Long
-ericlong@live.com
-(774) 555-2589</t>
+Anthony Walker
+anthony.walker73@outlook.com
+(413) 555-4627</t>
         </is>
       </c>
       <c r="T24" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Christopher Stewart
-christopher296@hotmail.com
-(857) 555-5516</t>
+Janet Reed
+jreed@outlook.com
+(978) 555-2974</t>
         </is>
       </c>
     </row>
@@ -2383,25 +2383,25 @@
       <c r="R25" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Sarah Wilson
-swilson@verizon.net
-(508) 555-6295</t>
+Debra Stewart
+debra.stewart32@yahoo.com
+(781) 555-0091</t>
         </is>
       </c>
       <c r="S25" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-John Mitchell
-john.mitchell@comcast.net
-(351) 555-3154</t>
+Douglas Baker
+douglas.baker43@gmail.com
+(413) 555-6008</t>
         </is>
       </c>
       <c r="T25" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Emma Jimenez
-ejimenez@comcast.net
-(617) 555-5049</t>
+Richard Johnson
+richard167@live.com
+(774) 555-5712</t>
         </is>
       </c>
     </row>
@@ -2472,17 +2472,17 @@
       <c r="R26" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Carol B Jackson
-caroljackson@live.com
-(774) 555-1671</t>
+Paul Scott
+paul89@gmail.com
+(857) 555-0733</t>
         </is>
       </c>
       <c r="S26" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Anthony N Chavez
-anthony.chavez@hotmail.com
-(617) 555-8066</t>
+Gregory V Price
+gregory354@yahoo.com
+(413) 555-7325</t>
         </is>
       </c>
       <c r="T26" s="14" t="inlineStr">
@@ -2556,25 +2556,25 @@
       <c r="R27" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Sarah Thomas
-sarah942@verizon.net
-(857) 555-9412</t>
+Sandra Edwards
+sandra136@verizon.net
+(857) 555-3863</t>
         </is>
       </c>
       <c r="S27" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Amy Roberts
-aroberts@gmail.com
-(617) 555-3273</t>
+Sarah Parker
+sarahparker@verizon.net
+(774) 555-7132</t>
         </is>
       </c>
       <c r="T27" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Ashley Reyes
-ashleyreyes@comcast.net
-(978) 555-9694</t>
+Jerry K Carter
+jerry.carter9@outlook.com
+(508) 555-8690</t>
         </is>
       </c>
     </row>
@@ -2643,25 +2643,25 @@
       <c r="R28" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jacob E White
-jacobwhite@msn.com
-(339) 555-8265</t>
+Nancy Sanchez
+nancy.sanchez3@gmail.com
+(978) 555-7221</t>
         </is>
       </c>
       <c r="S28" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Gary Martin
-garymartin@comcast.net
-(774) 555-0706</t>
+Thomas Cooper
+thomas517@verizon.net
+(351) 555-7849</t>
         </is>
       </c>
       <c r="T28" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Sarah P Walker
-sarah.walker@icloud.com
-(413) 555-7832</t>
+Gregory Kelly
+gkelly@outlook.com
+(339) 555-9362</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       <c r="R29" s="14" t="inlineStr">
         <is>
           <t>Explorer Post Advisor
-James Peterson
-jamespeterson@verizon.net
-(617) 555-5009</t>
+William Wright
+william296@outlook.com
+(978) 555-9324</t>
         </is>
       </c>
       <c r="S29" s="14" t="inlineStr">
         <is>
           <t>Post Committee Chair
-Joseph Z Price
-joseph.price53@aol.com
-(413) 555-3412</t>
+Raymond Roberts
+raymond.roberts@gmail.com
+(339) 555-8415</t>
         </is>
       </c>
       <c r="T29" s="14" t="inlineStr">
@@ -2815,25 +2815,25 @@
       <c r="R30" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Mary F Lewis
-mary.lewis@msn.com
-(781) 555-4641</t>
+Janet Ramos
+janet.ramos11@aol.com
+(508) 555-5046</t>
         </is>
       </c>
       <c r="S30" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Mark K Powell
-markpowell@aol.com
-(781) 555-7436</t>
+Benjamin Williams
+benjamin.williams83@outlook.com
+(339) 555-4666</t>
         </is>
       </c>
       <c r="T30" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Thomas Stewart
-thomasstewart@aol.com
-(351) 555-2276</t>
+Nancy Ramirez
+nancy.ramirez@outlook.com
+(857) 555-2054</t>
         </is>
       </c>
     </row>
@@ -2901,25 +2901,25 @@
       <c r="R31" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Janet Baker
-jbaker@comcast.net
-(617) 555-8835</t>
+Jerry Cooper
+jerry.cooper@verizon.net
+(857) 555-0240</t>
         </is>
       </c>
       <c r="S31" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sandra Q Mitchell
-sandra.mitchell@msn.com
-(774) 555-3095</t>
+Olivia Thomas
+olivia.thomas@yahoo.com
+(508) 555-7904</t>
         </is>
       </c>
       <c r="T31" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Emma L Wright
-emma.wright@live.com
-(781) 555-5914</t>
+Justin Brown
+jbrown@icloud.com
+(781) 555-1649</t>
         </is>
       </c>
     </row>
@@ -2992,25 +2992,25 @@
       <c r="R32" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Joshua Carter
-joshua.carter@verizon.net
-(508) 555-2144</t>
+Sharon W Mitchell
+sharonmitchell@comcast.net
+(978) 555-1078</t>
         </is>
       </c>
       <c r="S32" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Samuel O Martin
-samuelmartin@yahoo.com
-(857) 555-4553</t>
+Larry G Taylor
+ltaylor@comcast.net
+(617) 555-4302</t>
         </is>
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Alexander Z Alvarez
-alexander481@yahoo.com
-(413) 555-0581</t>
+Jonathan T Patel
+jonathan.patel55@gmail.com
+(774) 555-3583</t>
         </is>
       </c>
     </row>
@@ -3076,25 +3076,25 @@
       <c r="R33" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Lisa Price
-lisa269@yahoo.com
-(774) 555-0922</t>
+Nicholas L Foster
+nicholasfoster@yahoo.com
+(617) 555-6198</t>
         </is>
       </c>
       <c r="S33" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ashley P Wright
-ashleywright@live.com
-(774) 555-1362</t>
+Helen W Wright
+helenwright@yahoo.com
+(508) 555-9934</t>
         </is>
       </c>
       <c r="T33" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Joseph Morgan
-jmorgan@comcast.net
-(781) 555-4271</t>
+Ruth Clark
+ruth.clark70@verizon.net
+(781) 555-4468</t>
         </is>
       </c>
     </row>
@@ -3163,25 +3163,25 @@
       <c r="R34" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Debra Campbell
-debra.campbell22@hotmail.com
-(351) 555-1179</t>
+Ruth Campbell
+ruth.campbell23@msn.com
+(774) 555-5055</t>
         </is>
       </c>
       <c r="S34" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Gary K Martin
-gmartin@gmail.com
-(351) 555-0814</t>
+Olivia M Patel
+oliviapatel@icloud.com
+(351) 555-2520</t>
         </is>
       </c>
       <c r="T34" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Dorothy Hall
-dorothy.hall@icloud.com
-(774) 555-6800</t>
+Larry Y Phillips
+larry65@aol.com
+(978) 555-8152</t>
         </is>
       </c>
     </row>
@@ -3258,25 +3258,25 @@
       <c r="R35" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sarah Jackson
-sarah.jackson@gmail.com
-(413) 555-9592</t>
+Timothy S Taylor
+timothy56@yahoo.com
+(617) 555-3893</t>
         </is>
       </c>
       <c r="S35" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Brian Watson
-brian.watson@hotmail.com
-(978) 555-3164</t>
+Michael Myers
+mmyers@hotmail.com
+(617) 555-1147</t>
         </is>
       </c>
       <c r="T35" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Adam Walker
-adam.walker61@live.com
-(351) 555-8887</t>
+Jennifer Jimenez
+jennifer.jimenez40@msn.com
+(508) 555-7103</t>
         </is>
       </c>
     </row>
@@ -3350,25 +3350,25 @@
       <c r="R36" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Linda E Collins
-lcollins@msn.com
-(781) 555-8564</t>
+Timothy Adams
+timothy.adams24@live.com
+(617) 555-0802</t>
         </is>
       </c>
       <c r="S36" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Betty Jenkins
-betty266@outlook.com
-(339) 555-4947</t>
+Raymond Castillo
+rcastillo@comcast.net
+(413) 555-7531</t>
         </is>
       </c>
       <c r="T36" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Kimberly F Jackson
-kimberly.jackson@comcast.net
-(351) 555-5292</t>
+Nancy James
+nancy907@msn.com
+(508) 555-5828</t>
         </is>
       </c>
     </row>
@@ -3445,25 +3445,25 @@
       <c r="R37" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Janet F Hernandez
-janet.hernandez80@verizon.net
-(351) 555-2475</t>
+Donna D Morris
+donnamorris@msn.com
+(774) 555-2130</t>
         </is>
       </c>
       <c r="S37" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Donald I Clark
-dclark@live.com
-(774) 555-0613</t>
+James Russell
+jamesrussell@gmail.com
+(617) 555-8693</t>
         </is>
       </c>
       <c r="T37" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Brenda Perry
-bperry@icloud.com
-(774) 555-8924</t>
+Aaron Young
+aaron.young29@verizon.net
+(351) 555-6424</t>
         </is>
       </c>
     </row>
@@ -3541,25 +3541,25 @@
       <c r="R38" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Nicholas Brown
-nicholasbrown@yahoo.com
-(774) 555-8428</t>
+Jonathan Turner
+jturner@aol.com
+(339) 555-2815</t>
         </is>
       </c>
       <c r="S38" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Steven Castillo
-stevencastillo@verizon.net
-(413) 555-9941</t>
+Laura Watson
+laura.watson51@gmail.com
+(413) 555-1077</t>
         </is>
       </c>
       <c r="T38" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Brandon Price
-brandonprice@hotmail.com
-(339) 555-5499</t>
+Kenneth Gonzalez
+kgonzalez@aol.com
+(413) 555-5700</t>
         </is>
       </c>
     </row>
@@ -3636,25 +3636,25 @@
       <c r="R39" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Thomas Rivera
-thomas.rivera@comcast.net
-(774) 555-5994</t>
+Nancy Jackson
+nancy.jackson@outlook.com
+(617) 555-0600</t>
         </is>
       </c>
       <c r="S39" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Aaron Jackson
-aaron.jackson@icloud.com
-(781) 555-1975</t>
+Stephen R Robinson
+srobinson@icloud.com
+(413) 555-1175</t>
         </is>
       </c>
       <c r="T39" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Sandra Baker
-sandra.baker@outlook.com
-(617) 555-9598</t>
+Ruth Hernandez
+ruth.hernandez@msn.com
+(617) 555-7608</t>
         </is>
       </c>
     </row>
@@ -3732,25 +3732,25 @@
       <c r="R40" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jessica Hall
-jhall@verizon.net
-(413) 555-9234</t>
+Karen Scott
+karen.scott80@icloud.com
+(339) 555-6226</t>
         </is>
       </c>
       <c r="S40" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Barbara Morris
-barbara239@verizon.net
-(413) 555-2847</t>
+Laura Myers
+lmyers@outlook.com
+(781) 555-7001</t>
         </is>
       </c>
       <c r="T40" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Matthew Jenkins
-mjenkins@msn.com
-(339) 555-5959</t>
+Jack Cook
+jack711@live.com
+(781) 555-2588</t>
         </is>
       </c>
     </row>
@@ -3828,25 +3828,25 @@
       <c r="R41" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Samantha Chavez
-samantha.chavez@aol.com
-(351) 555-0631</t>
+Aaron Reyes
+aaron.reyes72@live.com
+(339) 555-0080</t>
         </is>
       </c>
       <c r="S41" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Kimberly R Perez
-kimberly701@aol.com
-(857) 555-1621</t>
+Laura Jimenez
+ljimenez@gmail.com
+(508) 555-6871</t>
         </is>
       </c>
       <c r="T41" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Angela X Anderson
-angelaanderson@msn.com
-(339) 555-5630</t>
+Karen Hall
+karen.hall75@verizon.net
+(617) 555-1599</t>
         </is>
       </c>
     </row>
@@ -3923,25 +3923,25 @@
       <c r="R42" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dorothy N Sanchez
-dorothy.sanchez63@icloud.com
-(774) 555-2228</t>
+Laura Powell
+laura.powell@hotmail.com
+(617) 555-2561</t>
         </is>
       </c>
       <c r="S42" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jose Peterson
-josepeterson@gmail.com
-(617) 555-6444</t>
+Mark Taylor
+mark.taylor@outlook.com
+(413) 555-9220</t>
         </is>
       </c>
       <c r="T42" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Paul Collins
-pcollins@hotmail.com
-(508) 555-2878</t>
+Jacob L Martinez
+jacob160@gmail.com
+(978) 555-7317</t>
         </is>
       </c>
     </row>
@@ -4018,25 +4018,25 @@
       <c r="R43" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-George Mitchell
-george.mitchell@verizon.net
-(508) 555-6025</t>
+Patricia Morris
+patricia.morris74@verizon.net
+(339) 555-5928</t>
         </is>
       </c>
       <c r="S43" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sarah Lee
-sarah.lee@verizon.net
-(774) 555-6813</t>
+Scott Gomez
+sgomez@verizon.net
+(508) 555-3015</t>
         </is>
       </c>
       <c r="T43" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Adam M Flores
-aflores@yahoo.com
-(774) 555-1129</t>
+Alexander Thomas
+athomas@hotmail.com
+(617) 555-0269</t>
         </is>
       </c>
     </row>
@@ -4111,25 +4111,25 @@
       <c r="R44" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dennis Lewis
-dennis837@gmail.com
-(351) 555-9461</t>
+Betty Rodriguez
+betty.rodriguez@verizon.net
+(857) 555-0767</t>
         </is>
       </c>
       <c r="S44" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Linda Moore
-linda.moore51@gmail.com
-(978) 555-4986</t>
+Gregory Jimenez
+gregoryjimenez@comcast.net
+(774) 555-8841</t>
         </is>
       </c>
       <c r="T44" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Jack Morales
-jack.morales@icloud.com
-(857) 555-2930</t>
+Angela W Williams
+angelawilliams@yahoo.com
+(857) 555-7074</t>
         </is>
       </c>
     </row>
@@ -4203,25 +4203,25 @@
       <c r="R45" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Thomas Jackson
-thomas213@verizon.net
-(774) 555-9828</t>
+Eric Harris
+eharris@gmail.com
+(339) 555-3168</t>
         </is>
       </c>
       <c r="S45" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jacob Sanchez
-jsanchez@hotmail.com
-(413) 555-8327</t>
+Ryan Ortiz
+ryan.ortiz78@hotmail.com
+(351) 555-8110</t>
         </is>
       </c>
       <c r="T45" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Robert H Jimenez
-robert.jimenez@hotmail.com
-(351) 555-7253</t>
+Ryan Q Rogers
+ryan.rogers@gmail.com
+(508) 555-2547</t>
         </is>
       </c>
     </row>
@@ -4298,25 +4298,25 @@
       <c r="R46" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-William Wright
-wwright@comcast.net
-(339) 555-7106</t>
+Sandra Morgan
+sandra.morgan@yahoo.com
+(774) 555-3426</t>
         </is>
       </c>
       <c r="S46" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-James Rivera
-jamesrivera@aol.com
-(339) 555-6777</t>
+Sarah X Stewart
+sarah.stewart@icloud.com
+(413) 555-9326</t>
         </is>
       </c>
       <c r="T46" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-John C Nelson
-john.nelson3@msn.com
-(774) 555-6378</t>
+Tyler Bennett
+tyler.bennett@outlook.com
+(774) 555-5754</t>
         </is>
       </c>
     </row>
@@ -4391,25 +4391,25 @@
       <c r="R47" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Sharon W Green
-sharon69@icloud.com
-(351) 555-8177</t>
+Susan Wright
+susan.wright99@hotmail.com
+(339) 555-9359</t>
         </is>
       </c>
       <c r="S47" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Christine Williams
-christine.williams@outlook.com
-(617) 555-2256</t>
+Brandon Gonzalez
+bgonzalez@icloud.com
+(617) 555-7789</t>
         </is>
       </c>
       <c r="T47" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Lisa Ruiz
-lisa.ruiz@yahoo.com
-(781) 555-5567</t>
+Steven Ramirez
+steven386@verizon.net
+(339) 555-2622</t>
         </is>
       </c>
     </row>
@@ -4487,25 +4487,25 @@
       <c r="R48" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Joseph Rogers
-josephrogers@icloud.com
-(508) 555-7495</t>
+Larry Cooper
+larry.cooper91@yahoo.com
+(617) 555-2908</t>
         </is>
       </c>
       <c r="S48" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Angela Clark
-aclark@yahoo.com
-(339) 555-9827</t>
+Jack N Carter
+jcarter@hotmail.com
+(351) 555-3037</t>
         </is>
       </c>
       <c r="T48" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Paul Ramos
-paulramos@live.com
-(774) 555-9086</t>
+Jacob Richardson
+jacob265@gmail.com
+(413) 555-5928</t>
         </is>
       </c>
     </row>
@@ -4580,25 +4580,25 @@
       <c r="R49" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jack Garcia
-jgarcia@verizon.net
-(351) 555-1015</t>
+Deborah Morris
+deborah.morris70@live.com
+(508) 555-3541</t>
         </is>
       </c>
       <c r="S49" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Susan Watson
-susanwatson@live.com
-(774) 555-6396</t>
+Richard D Robinson
+richardrobinson@live.com
+(339) 555-7716</t>
         </is>
       </c>
       <c r="T49" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Kimberly Roberts
-kimberly.roberts27@msn.com
-(508) 555-0616</t>
+Jerry Jones
+jjones@comcast.net
+(339) 555-8637</t>
         </is>
       </c>
     </row>
@@ -4676,17 +4676,17 @@
       <c r="R50" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Thomas R Morales
-thomas222@live.com
-(351) 555-1066</t>
+David Carter
+davidcarter@yahoo.com
+(781) 555-5677</t>
         </is>
       </c>
       <c r="S50" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Amy P Jimenez
-amyjimenez@gmail.com
-(978) 555-7965</t>
+Benjamin Scott
+bscott@aol.com
+(351) 555-8299</t>
         </is>
       </c>
       <c r="T50" s="14" t="inlineStr">
@@ -4768,25 +4768,25 @@
       <c r="R51" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Alexander Sanchez
-alexander.sanchez@icloud.com
-(781) 555-1226</t>
+Timothy Ross
+tross@live.com
+(774) 555-7647</t>
         </is>
       </c>
       <c r="S51" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sharon Sanchez
-sharon.sanchez62@msn.com
-(617) 555-0899</t>
+George Mendoza
+georgemendoza@hotmail.com
+(617) 555-0079</t>
         </is>
       </c>
       <c r="T51" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Betty Carter
-betty910@gmail.com
-(413) 555-3498</t>
+Kenneth Richardson
+kenneth820@yahoo.com
+(774) 555-9290</t>
         </is>
       </c>
     </row>
@@ -4864,25 +4864,25 @@
       <c r="R52" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Sarah Q Evans
-sarah.evans83@live.com
-(774) 555-0645</t>
+Alexander Young
+alexander.young14@verizon.net
+(774) 555-4180</t>
         </is>
       </c>
       <c r="S52" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jeffrey Z Thomas
-jthomas@yahoo.com
-(781) 555-6248</t>
+Karen R Howard
+khoward@msn.com
+(508) 555-3386</t>
         </is>
       </c>
       <c r="T52" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Dorothy James
-dorothy.james@gmail.com
-(774) 555-7334</t>
+Lisa Gomez
+lisa223@aol.com
+(351) 555-1944</t>
         </is>
       </c>
     </row>
@@ -4957,25 +4957,25 @@
       <c r="R53" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Scott K Garcia
-scottgarcia@gmail.com
-(978) 555-6294</t>
+Sharon Stewart
+sharon38@msn.com
+(351) 555-3891</t>
         </is>
       </c>
       <c r="S53" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ruth Richardson
-ruth.richardson@live.com
-(617) 555-2578</t>
+Raymond Martinez
+raymond.martinez@yahoo.com
+(774) 555-0181</t>
         </is>
       </c>
       <c r="T53" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Gary N Morales
-gmorales@yahoo.com
-(978) 555-6902</t>
+Deborah Cox
+deborah.cox@hotmail.com
+(339) 555-8388</t>
         </is>
       </c>
     </row>
@@ -5050,25 +5050,25 @@
       <c r="R54" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Lisa R Lee
-lisa.lee86@outlook.com
-(781) 555-6704</t>
+Paul Moore
+paul.moore84@live.com
+(774) 555-7376</t>
         </is>
       </c>
       <c r="S54" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Angela Foster
-angelafoster@icloud.com
-(508) 555-1215</t>
+Emma B Martinez
+emartinez@yahoo.com
+(351) 555-4071</t>
         </is>
       </c>
       <c r="T54" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Timothy Chavez
-timothy.chavez@verizon.net
-(413) 555-5578</t>
+Deborah T Wilson
+deborah.wilson@gmail.com
+(508) 555-1150</t>
         </is>
       </c>
     </row>
@@ -5143,25 +5143,25 @@
       <c r="R55" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Charles U Bennett
-cbennett@aol.com
-(774) 555-8731</t>
+Mary Martinez
+marymartinez@outlook.com
+(857) 555-6309</t>
         </is>
       </c>
       <c r="S55" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Timothy Martinez
-tmartinez@hotmail.com
-(781) 555-7990</t>
+Richard Gomez
+richard.gomez14@verizon.net
+(508) 555-0354</t>
         </is>
       </c>
       <c r="T55" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Marie Walker
-marie.walker96@aol.com
-(978) 555-8592</t>
+Jerry Y Howard
+jerryhoward@gmail.com
+(413) 555-6690</t>
         </is>
       </c>
     </row>
@@ -5233,25 +5233,25 @@
       <c r="R56" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Paul Brooks
-paul.brooks@comcast.net
-(978) 555-4646</t>
+Kimberly Rodriguez
+kimberlyrodriguez@comcast.net
+(781) 555-3637</t>
         </is>
       </c>
       <c r="S56" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Dennis Russell
-dennis396@outlook.com
-(774) 555-9763</t>
+Ashley E Thompson
+athompson@live.com
+(508) 555-5266</t>
         </is>
       </c>
       <c r="T56" s="14" t="inlineStr">
         <is>
           <t>Venturing Crew Advisor
-Paul Mendoza
-paul.mendoza83@verizon.net
-(978) 555-3381</t>
+Joseph Castillo
+joseph.castillo14@gmail.com
+(339) 555-4935</t>
         </is>
       </c>
     </row>
@@ -5332,25 +5332,25 @@
       <c r="R57" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Ashley B Reed
-ashleyreed@verizon.net
-(617) 555-4482</t>
+Lisa Green
+lgreen@msn.com
+(978) 555-1097</t>
         </is>
       </c>
       <c r="S57" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Henry Kelly
-henry976@hotmail.com
-(508) 555-9071</t>
+Deborah M Ruiz
+deborah.ruiz5@yahoo.com
+(508) 555-4231</t>
         </is>
       </c>
       <c r="T57" s="14" t="inlineStr">
         <is>
           <t>Venturing Crew Advisor
-Lisa Nelson
-lisa.nelson88@gmail.com
-(978) 555-2338</t>
+Cynthia U Price
+cprice@outlook.com
+(857) 555-9469</t>
         </is>
       </c>
     </row>
@@ -5423,25 +5423,25 @@
       <c r="R58" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Steven Collins
-steven.collins@live.com
-(774) 555-1784</t>
+Christine Reed
+christine.reed@icloud.com
+(351) 555-7590</t>
         </is>
       </c>
       <c r="S58" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Christine C Richardson
-christine.richardson@outlook.com
-(339) 555-4025</t>
+Kimberly Z Moore
+kmoore@comcast.net
+(339) 555-7985</t>
         </is>
       </c>
       <c r="T58" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Carol Brooks
-carol.brooks@hotmail.com
-(339) 555-0402</t>
+Angela M White
+angelawhite@outlook.com
+(617) 555-2649</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       <c r="R59" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jason N Brooks
-jasonbrooks@aol.com
-(857) 555-6498</t>
+George Alvarez
+georgealvarez@icloud.com
+(413) 555-4273</t>
         </is>
       </c>
       <c r="S59" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Andrew N Ramirez
-andrew813@verizon.net
-(617) 555-3310</t>
+Paul Phillips
+paul.phillips33@live.com
+(351) 555-1094</t>
         </is>
       </c>
       <c r="T59" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Amy Murphy
-amy.murphy@outlook.com
-(978) 555-8905</t>
+Sandra Thomas
+sthomas@live.com
+(978) 555-7707</t>
         </is>
       </c>
     </row>
@@ -5602,25 +5602,25 @@
       <c r="R60" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Karen Baker
-karen.baker@verizon.net
-(617) 555-2942</t>
+Joshua Smith
+joshua.smith@comcast.net
+(978) 555-5796</t>
         </is>
       </c>
       <c r="S60" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Catherine Wilson
-catherine.wilson80@live.com
-(781) 555-2096</t>
+Douglas Long
+douglas.long40@verizon.net
+(413) 555-7565</t>
         </is>
       </c>
       <c r="T60" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Rachel Y Parker
-rachel.parker99@icloud.com
-(617) 555-5333</t>
+Mary Baker
+mary58@outlook.com
+(617) 555-0185</t>
         </is>
       </c>
     </row>
@@ -5694,25 +5694,25 @@
       <c r="R61" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Frances Castillo
-frances.castillo7@msn.com
-(351) 555-9663</t>
+Alexander Smith
+alexander.smith38@gmail.com
+(978) 555-3481</t>
         </is>
       </c>
       <c r="S61" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-John Flores
-jflores@icloud.com
-(617) 555-1945</t>
+Christopher Patel
+cpatel@comcast.net
+(774) 555-4547</t>
         </is>
       </c>
       <c r="T61" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Ruth K Nguyen
-ruth.nguyen83@live.com
-(413) 555-0779</t>
+Sharon Walker
+swalker@comcast.net
+(774) 555-4501</t>
         </is>
       </c>
     </row>
@@ -5783,25 +5783,25 @@
       <c r="R62" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Amy Price
-amy.price@gmail.com
-(617) 555-8529</t>
+Ronald V Williams
+ronald.williams@gmail.com
+(508) 555-8025</t>
         </is>
       </c>
       <c r="S62" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Eric Rivera
-eric.rivera@icloud.com
-(413) 555-0048</t>
+Frank Harris
+fharris@verizon.net
+(617) 555-6259</t>
         </is>
       </c>
       <c r="T62" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Michael Rogers
-michael151@aol.com
-(857) 555-2127</t>
+Frank Walker
+frankwalker@gmail.com
+(857) 555-9628</t>
         </is>
       </c>
     </row>
@@ -5871,25 +5871,25 @@
       <c r="R63" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Benjamin Long
-benjamin.long26@outlook.com
-(978) 555-3794</t>
+Olivia Peterson
+olivia131@gmail.com
+(351) 555-6478</t>
         </is>
       </c>
       <c r="S63" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sarah M Allen
-sarah.allen20@verizon.net
-(617) 555-1166</t>
+Ryan Z Stewart
+ryan18@outlook.com
+(351) 555-7080</t>
         </is>
       </c>
       <c r="T63" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-David S Allen
-dallen@yahoo.com
-(339) 555-0111</t>
+Karen J Morales
+karen984@live.com
+(774) 555-5801</t>
         </is>
       </c>
     </row>
@@ -5961,25 +5961,25 @@
       <c r="R64" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Lisa Foster
-lisa.foster8@aol.com
-(978) 555-0765</t>
+Nancy X Sanders
+nancy208@aol.com
+(781) 555-1384</t>
         </is>
       </c>
       <c r="S64" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-George Anderson
-george187@aol.com
-(617) 555-4177</t>
+Nancy Watson
+nancy.watson18@outlook.com
+(413) 555-8166</t>
         </is>
       </c>
       <c r="T64" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Kevin Miller
-kevin.miller@comcast.net
-(978) 555-7789</t>
+Christopher Foster
+christopher.foster19@live.com
+(351) 555-9729</t>
         </is>
       </c>
     </row>
@@ -6049,25 +6049,25 @@
       <c r="R65" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jason Wilson
-jason787@hotmail.com
-(781) 555-2039</t>
+Samantha Rivera
+srivera@icloud.com
+(339) 555-0133</t>
         </is>
       </c>
       <c r="S65" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Samuel A Kim
-skim@yahoo.com
-(413) 555-2664</t>
+Ruth Cruz
+ruth.cruz18@comcast.net
+(774) 555-3855</t>
         </is>
       </c>
       <c r="T65" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Nancy Mitchell
-nmitchell@aol.com
-(978) 555-3683</t>
+Ruth White
+rwhite@live.com
+(774) 555-5187</t>
         </is>
       </c>
     </row>
@@ -6136,25 +6136,25 @@
       <c r="R66" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Kevin P Cox
-kevin.cox@hotmail.com
-(508) 555-7027</t>
+Sandra Roberts
+sroberts@outlook.com
+(857) 555-8195</t>
         </is>
       </c>
       <c r="S66" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Donna Long
-dlong@comcast.net
-(351) 555-7479</t>
+Janet Evans
+jevans@gmail.com
+(781) 555-4176</t>
         </is>
       </c>
       <c r="T66" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Karen O Wright
-kwright@comcast.net
-(617) 555-7454</t>
+Emma M Hall
+ehall@msn.com
+(978) 555-5257</t>
         </is>
       </c>
     </row>
@@ -6222,25 +6222,25 @@
       <c r="R67" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Lisa Perez
-lisa.perez@gmail.com
-(351) 555-7101</t>
+Ruth Ramos
+ruth.ramos45@msn.com
+(781) 555-5775</t>
         </is>
       </c>
       <c r="S67" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jerry Morales
-jerry.morales@verizon.net
-(857) 555-2452</t>
+Amy Jenkins
+amy.jenkins@yahoo.com
+(978) 555-1897</t>
         </is>
       </c>
       <c r="T67" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Patrick E Jackson
-patrickjackson@icloud.com
-(617) 555-7734</t>
+Jessica A Nelson
+jnelson@icloud.com
+(413) 555-2658</t>
         </is>
       </c>
     </row>
@@ -6317,25 +6317,25 @@
       <c r="R68" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Laura Richardson
-laura.richardson@live.com
-(508) 555-2926</t>
+Adam Bailey
+adambailey@comcast.net
+(617) 555-0404</t>
         </is>
       </c>
       <c r="S68" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Thomas Russell
-thomas.russell@outlook.com
-(508) 555-8300</t>
+Jason James
+jason360@icloud.com
+(857) 555-2840</t>
         </is>
       </c>
       <c r="T68" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Stephen Rodriguez
-stephen.rodriguez85@hotmail.com
-(781) 555-1871</t>
+Sarah Reyes
+sarahreyes@aol.com
+(508) 555-3245</t>
         </is>
       </c>
     </row>
@@ -6415,25 +6415,25 @@
       <c r="R69" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Ronald H Ross
-ronald.ross90@msn.com
-(857) 555-3113</t>
+Aaron Morris
+amorris@live.com
+(857) 555-1014</t>
         </is>
       </c>
       <c r="S69" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Matthew D Rivera
-matthewrivera@verizon.net
-(774) 555-1148</t>
+Olivia Martin
+omartin@aol.com
+(413) 555-3835</t>
         </is>
       </c>
       <c r="T69" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Paul Roberts
-paulroberts@verizon.net
-(781) 555-0024</t>
+Brenda Wright
+brenda.wright@verizon.net
+(508) 555-7173</t>
         </is>
       </c>
     </row>
@@ -6510,25 +6510,25 @@
       <c r="R70" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donna Lewis
-donna.lewis@live.com
-(774) 555-6589</t>
+Gregory Thomas
+gregorythomas@comcast.net
+(339) 555-2373</t>
         </is>
       </c>
       <c r="S70" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Barbara Castillo
-bcastillo@verizon.net
-(617) 555-0915</t>
+Nicholas C Allen
+nicholasallen@aol.com
+(774) 555-1823</t>
         </is>
       </c>
       <c r="T70" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-John W Alvarez
-john.alvarez28@live.com
-(413) 555-7534</t>
+Ryan W Thomas
+ryan.thomas17@yahoo.com
+(413) 555-9169</t>
         </is>
       </c>
     </row>
@@ -6604,25 +6604,25 @@
       <c r="R71" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Mary Perez
-mary.perez73@icloud.com
-(339) 555-2374</t>
+Helen Stewart
+helenstewart@yahoo.com
+(508) 555-9209</t>
         </is>
       </c>
       <c r="S71" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Dorothy S Peterson
-dorothy.peterson@gmail.com
-(508) 555-8197</t>
+Mary Lewis
+mary.lewis@verizon.net
+(508) 555-2879</t>
         </is>
       </c>
       <c r="T71" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Emma Ward
-emma.ward@gmail.com
-(617) 555-3474</t>
+Jonathan Mitchell
+jmitchell@icloud.com
+(413) 555-6310</t>
         </is>
       </c>
     </row>
@@ -6702,25 +6702,25 @@
       <c r="R72" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Ruth Gutierrez
-ruthgutierrez@verizon.net
-(617) 555-6129</t>
+Timothy Scott
+timothyscott@verizon.net
+(339) 555-1088</t>
         </is>
       </c>
       <c r="S72" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Edward Perez
-edward.perez@comcast.net
-(508) 555-9332</t>
+Christine A Collins
+ccollins@yahoo.com
+(978) 555-2429</t>
         </is>
       </c>
       <c r="T72" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Brian Sanders
-briansanders@yahoo.com
-(781) 555-5931</t>
+George Cook
+george716@aol.com
+(781) 555-1921</t>
         </is>
       </c>
     </row>
@@ -6799,25 +6799,25 @@
       <c r="R73" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Linda M Gonzalez
-linda.gonzalez@verizon.net
-(774) 555-8144</t>
+Ashley Smith
+asmith@verizon.net
+(857) 555-8993</t>
         </is>
       </c>
       <c r="S73" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sandra Z Edwards
-sandraedwards@aol.com
-(351) 555-0084</t>
+Helen Ramirez
+helen.ramirez33@yahoo.com
+(339) 555-2067</t>
         </is>
       </c>
       <c r="T73" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Karen Miller
-karen.miller@gmail.com
-(351) 555-4682</t>
+Henry P Hughes
+henry663@yahoo.com
+(617) 555-1868</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,11 @@
           <t>Jefferson</t>
         </is>
       </c>
-      <c r="D74" s="8" t="inlineStr"/>
+      <c r="D74" s="9" t="inlineStr">
+        <is>
+          <t>01522</t>
+        </is>
+      </c>
       <c r="E74" s="10" t="n">
         <v>75</v>
       </c>
@@ -6886,25 +6890,25 @@
       <c r="R74" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Alexander Martin
-alexander455@yahoo.com
-(978) 555-7375</t>
+David E King
+david.king27@comcast.net
+(978) 555-8803</t>
         </is>
       </c>
       <c r="S74" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Tyler Hughes
-tylerhughes@verizon.net
-(774) 555-5229</t>
+Kimberly A Roberts
+kimberly493@aol.com
+(351) 555-7487</t>
         </is>
       </c>
       <c r="T74" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Mark Clark
-markclark@comcast.net
-(774) 555-0276</t>
+Marie R Garcia
+mariegarcia@verizon.net
+(617) 555-2290</t>
         </is>
       </c>
     </row>
@@ -6977,25 +6981,25 @@
       <c r="R75" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Paul Allen
-paulallen@gmail.com
-(857) 555-5840</t>
+Samantha G Lewis
+samantha330@live.com
+(978) 555-6015</t>
         </is>
       </c>
       <c r="S75" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Tyler Garcia
-tyler.garcia17@outlook.com
-(978) 555-4241</t>
+Donald White
+donaldwhite@verizon.net
+(508) 555-7423</t>
         </is>
       </c>
       <c r="T75" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Stephen P Russell
-srussell@live.com
-(781) 555-9746</t>
+Deborah Harris
+deborahharris@gmail.com
+(617) 555-6048</t>
         </is>
       </c>
     </row>
@@ -7071,25 +7075,25 @@
       <c r="R76" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donald K Young
-donald.young56@gmail.com
-(857) 555-9464</t>
+Larry Edwards
+larry.edwards@comcast.net
+(857) 555-0194</t>
         </is>
       </c>
       <c r="S76" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Raymond Ward
-raymond.ward90@gmail.com
-(413) 555-5247</t>
+Jacob E Martin
+jacob.martin27@icloud.com
+(617) 555-3668</t>
         </is>
       </c>
       <c r="T76" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Mary Bailey
-mary392@hotmail.com
-(339) 555-5530</t>
+Elizabeth Walker
+elizabeth.walker8@comcast.net
+(413) 555-9998</t>
         </is>
       </c>
     </row>
@@ -7161,25 +7165,25 @@
       <c r="R77" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donald Ross
-dross@verizon.net
-(857) 555-0465</t>
+Samuel Nelson
+samuelnelson@msn.com
+(781) 555-2663</t>
         </is>
       </c>
       <c r="S77" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Kimberly Sanchez
-ksanchez@hotmail.com
-(617) 555-2073</t>
+Joseph I Jenkins
+joseph348@aol.com
+(351) 555-1303</t>
         </is>
       </c>
       <c r="T77" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Debra Parker
-debra.parker88@yahoo.com
-(508) 555-4890</t>
+Ronald Jones
+ronald113@icloud.com
+(339) 555-9394</t>
         </is>
       </c>
     </row>
@@ -7254,25 +7258,25 @@
       <c r="R78" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Betty Lopez
-betty545@comcast.net
-(617) 555-2877</t>
+Dorothy Parker
+dorothyparker@yahoo.com
+(857) 555-0133</t>
         </is>
       </c>
       <c r="S78" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Robert Gonzalez
-robertgonzalez@icloud.com
-(413) 555-5024</t>
+Nancy Taylor
+ntaylor@yahoo.com
+(774) 555-1283</t>
         </is>
       </c>
       <c r="T78" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Deborah M Scott
-deborahscott@hotmail.com
-(351) 555-4836</t>
+George O Anderson
+georgeanderson@live.com
+(857) 555-0328</t>
         </is>
       </c>
     </row>
@@ -7347,25 +7351,25 @@
       <c r="R79" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Samantha Jones
-samantha766@aol.com
-(774) 555-1468</t>
+Dorothy Ramos
+dramos@aol.com
+(413) 555-6588</t>
         </is>
       </c>
       <c r="S79" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Janet B Wood
-janet456@aol.com
-(339) 555-1265</t>
+Sandra S Williams
+sandra240@hotmail.com
+(978) 555-7078</t>
         </is>
       </c>
       <c r="T79" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Mark Bailey
-markbailey@comcast.net
-(781) 555-6418</t>
+Jeffrey Watson
+jeffreywatson@outlook.com
+(781) 555-8800</t>
         </is>
       </c>
     </row>
@@ -7437,25 +7441,25 @@
       <c r="R80" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Gregory V Howard
-gregoryhoward@live.com
-(857) 555-3569</t>
+Jennifer Williams
+jennifer678@outlook.com
+(413) 555-8454</t>
         </is>
       </c>
       <c r="S80" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Charles King
-charles.king36@gmail.com
-(857) 555-7281</t>
+Ryan Davis
+ryan.davis91@icloud.com
+(774) 555-5014</t>
         </is>
       </c>
       <c r="T80" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Betty Perez
-bettyperez@hotmail.com
-(508) 555-2566</t>
+Frank Morgan
+frank.morgan@live.com
+(857) 555-8776</t>
         </is>
       </c>
     </row>
@@ -7535,25 +7539,25 @@
       <c r="R81" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Linda Young
-linda789@aol.com
-(508) 555-5312</t>
+Eric Z Perez
+eric.perez57@yahoo.com
+(774) 555-9132</t>
         </is>
       </c>
       <c r="S81" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Lisa S Brown
-lbrown@outlook.com
-(857) 555-1884</t>
+Joseph Clark
+joseph.clark@hotmail.com
+(774) 555-0143</t>
         </is>
       </c>
       <c r="T81" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Christopher Cruz
-christophercruz@verizon.net
-(857) 555-1689</t>
+Larry Reyes
+larry.reyes90@outlook.com
+(351) 555-4836</t>
         </is>
       </c>
     </row>
@@ -7630,25 +7634,25 @@
       <c r="R82" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donna Flores
-donna.flores@verizon.net
-(978) 555-6984</t>
+James Cooper
+james.cooper80@comcast.net
+(339) 555-1369</t>
         </is>
       </c>
       <c r="S82" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Benjamin Gonzalez
-benjamingonzalez@comcast.net
-(617) 555-5776</t>
+Frank Powell
+frank.powell@msn.com
+(508) 555-7435</t>
         </is>
       </c>
       <c r="T82" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Ronald Kim
-ronaldkim@comcast.net
-(774) 555-5202</t>
+John Miller
+john.miller@outlook.com
+(339) 555-4404</t>
         </is>
       </c>
     </row>
@@ -7728,25 +7732,25 @@
       <c r="R83" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Helen Kim
-hkim@live.com
-(413) 555-3441</t>
+Kimberly Mitchell
+kimberlymitchell@hotmail.com
+(857) 555-5584</t>
         </is>
       </c>
       <c r="S83" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Robert U Patel
-robert.patel@hotmail.com
-(413) 555-9044</t>
+Janet Murphy
+janetmurphy@live.com
+(351) 555-0103</t>
         </is>
       </c>
       <c r="T83" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Gary S Hill
-gary43@comcast.net
-(508) 555-3080</t>
+Robert Evans
+robert.evans@hotmail.com
+(781) 555-1898</t>
         </is>
       </c>
     </row>
@@ -7823,25 +7827,25 @@
       <c r="R84" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Douglas Flores
-douglas.flores13@hotmail.com
-(339) 555-1477</t>
+Stephen White
+stephen.white@live.com
+(774) 555-3121</t>
         </is>
       </c>
       <c r="S84" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jonathan Morgan
-jonathanmorgan@outlook.com
-(413) 555-0692</t>
+Helen Cox
+helen.cox@verizon.net
+(774) 555-2773</t>
         </is>
       </c>
       <c r="T84" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Eric Johnson
-eric235@msn.com
-(978) 555-6546</t>
+Sarah B Diaz
+sarah846@live.com
+(978) 555-5159</t>
         </is>
       </c>
     </row>
@@ -7921,25 +7925,25 @@
       <c r="R85" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Kevin Powell
-kevin.powell68@outlook.com
-(781) 555-0952</t>
+Jacob Morgan
+jmorgan@outlook.com
+(351) 555-1130</t>
         </is>
       </c>
       <c r="S85" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Patrick C Alvarez
-palvarez@comcast.net
-(339) 555-9577</t>
+Dorothy Cox
+dorothy479@hotmail.com
+(617) 555-5841</t>
         </is>
       </c>
       <c r="T85" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Joseph Peterson
-joseph543@gmail.com
-(617) 555-1513</t>
+Richard G Patel
+richard.patel@live.com
+(978) 555-6285</t>
         </is>
       </c>
     </row>
@@ -8019,25 +8023,25 @@
       <c r="R86" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jessica Watson
-jessicawatson@hotmail.com
-(339) 555-6792</t>
+Carol D Jimenez
+carol999@outlook.com
+(781) 555-8261</t>
         </is>
       </c>
       <c r="S86" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Robert Z Mendoza
-robert256@yahoo.com
-(857) 555-9466</t>
+Gregory Reed
+greed@outlook.com
+(857) 555-2239</t>
         </is>
       </c>
       <c r="T86" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Donna Kim
-donna.kim@outlook.com
-(781) 555-0341</t>
+Christine U Cooper
+ccooper@icloud.com
+(351) 555-7682</t>
         </is>
       </c>
     </row>
@@ -8117,25 +8121,25 @@
       <c r="R87" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Carol Y Lewis
-carol.lewis79@aol.com
-(857) 555-7281</t>
+Mary Diaz
+marydiaz@aol.com
+(857) 555-7979</t>
         </is>
       </c>
       <c r="S87" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Joshua King
-joshua.king65@icloud.com
-(413) 555-8332</t>
+Jessica Torres
+jessicatorres@live.com
+(781) 555-2710</t>
         </is>
       </c>
       <c r="T87" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Sarah G Ward
-sarah219@icloud.com
-(774) 555-3817</t>
+Karen Miller
+karen.miller63@aol.com
+(978) 555-4312</t>
         </is>
       </c>
     </row>
@@ -8215,25 +8219,25 @@
       <c r="R88" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Sarah K Hernandez
-sarahhernandez@comcast.net
-(339) 555-0080</t>
+Ashley James
+ashleyjames@yahoo.com
+(413) 555-4796</t>
         </is>
       </c>
       <c r="S88" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Gregory Y Diaz
-gregory537@live.com
-(413) 555-1207</t>
+Ruth King
+ruthking@gmail.com
+(351) 555-6959</t>
         </is>
       </c>
       <c r="T88" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Kevin Wilson
-kevin.wilson61@aol.com
-(781) 555-1617</t>
+Kimberly Lewis
+kimberly.lewis88@verizon.net
+(978) 555-7736</t>
         </is>
       </c>
     </row>
@@ -8313,25 +8317,25 @@
       <c r="R89" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donald L Myers
-donald.myers@live.com
-(339) 555-2628</t>
+Karen K Ward
+karen.ward79@hotmail.com
+(781) 555-2675</t>
         </is>
       </c>
       <c r="S89" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Michelle Evans
-michelle.evans@hotmail.com
-(508) 555-0855</t>
+Ronald Hill
+rhill@msn.com
+(413) 555-3439</t>
         </is>
       </c>
       <c r="T89" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Sharon Lewis
-sharon.lewis9@live.com
-(617) 555-4582</t>
+Jacob Moore
+jacob.moore63@hotmail.com
+(351) 555-8261</t>
         </is>
       </c>
     </row>
@@ -8411,25 +8415,25 @@
       <c r="R90" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jennifer Kelly
-jennifer.kelly59@aol.com
-(351) 555-9638</t>
+Tyler Sanders
+tylersanders@msn.com
+(774) 555-9535</t>
         </is>
       </c>
       <c r="S90" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Karen Gray
-kgray@yahoo.com
-(857) 555-4623</t>
+Sharon Ramos
+sharonramos@hotmail.com
+(978) 555-5379</t>
         </is>
       </c>
       <c r="T90" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Dorothy C Bailey
-dorothy164@hotmail.com
-(413) 555-3762</t>
+Linda Reyes
+lindareyes@yahoo.com
+(857) 555-6561</t>
         </is>
       </c>
     </row>
@@ -8509,25 +8513,25 @@
       <c r="R91" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Susan B Myers
-susan.myers95@comcast.net
-(774) 555-0043</t>
+Elizabeth Sanders
+elizabeth.sanders54@icloud.com
+(339) 555-7753</t>
         </is>
       </c>
       <c r="S91" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Angela Watson
-angela.watson11@verizon.net
-(339) 555-4680</t>
+Donna Thompson
+donna.thompson96@gmail.com
+(774) 555-1611</t>
         </is>
       </c>
       <c r="T91" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Sandra Gray
-sandra.gray36@comcast.net
-(351) 555-1842</t>
+Kevin V Foster
+kevin.foster@aol.com
+(781) 555-0748</t>
         </is>
       </c>
     </row>
@@ -8607,25 +8611,25 @@
       <c r="R92" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Cynthia A Johnson
-cynthiajohnson@icloud.com
-(351) 555-2091</t>
+Steven Miller
+steven174@verizon.net
+(617) 555-4140</t>
         </is>
       </c>
       <c r="S92" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Paul Walker
-pwalker@live.com
-(774) 555-0983</t>
+Matthew Parker
+matthew.parker31@gmail.com
+(781) 555-8534</t>
         </is>
       </c>
       <c r="T92" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Sandra S Reed
-sreed@aol.com
-(774) 555-7422</t>
+Stephen Watson
+swatson@comcast.net
+(351) 555-9348</t>
         </is>
       </c>
     </row>
@@ -8705,25 +8709,25 @@
       <c r="R93" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Benjamin Brown
-bbrown@verizon.net
-(617) 555-9713</t>
+George Howard
+ghoward@live.com
+(978) 555-1297</t>
         </is>
       </c>
       <c r="S93" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Deborah Robinson
-drobinson@gmail.com
-(857) 555-2312</t>
+Brian A Allen
+brian318@msn.com
+(339) 555-9670</t>
         </is>
       </c>
       <c r="T93" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Jose Z Evans
-joseevans@comcast.net
-(351) 555-8363</t>
+Robert James
+robert615@verizon.net
+(774) 555-8621</t>
         </is>
       </c>
     </row>
@@ -8803,25 +8807,25 @@
       <c r="R94" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Joshua H Edwards
-joshua.edwards79@yahoo.com
-(351) 555-4044</t>
+Cynthia Parker
+cynthiaparker@live.com
+(857) 555-9406</t>
         </is>
       </c>
       <c r="S94" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Christopher White
-christopherwhite@live.com
-(339) 555-2604</t>
+Betty Rogers
+brogers@yahoo.com
+(508) 555-7057</t>
         </is>
       </c>
       <c r="T94" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Paul Powell
-paul.powell36@aol.com
-(508) 555-6284</t>
+Brandon Myers
+brandon.myers87@hotmail.com
+(508) 555-7230</t>
         </is>
       </c>
     </row>
@@ -8901,25 +8905,25 @@
       <c r="R95" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dorothy H Stewart
-dorothy5@gmail.com
-(774) 555-5671</t>
+Eric Z Sanchez
+esanchez@icloud.com
+(351) 555-4993</t>
         </is>
       </c>
       <c r="S95" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ashley Jimenez
-ashley.jimenez88@outlook.com
-(857) 555-9836</t>
+John Cook
+john.cook22@gmail.com
+(617) 555-9990</t>
         </is>
       </c>
       <c r="T95" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Daniel Robinson
-daniel705@aol.com
-(617) 555-6274</t>
+Linda Morgan
+lindamorgan@gmail.com
+(617) 555-6512</t>
         </is>
       </c>
     </row>
@@ -8996,25 +9000,25 @@
       <c r="R96" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donald Scott
-donald.scott73@gmail.com
-(351) 555-5732</t>
+Charles Cruz
+charles.cruz@live.com
+(774) 555-4807</t>
         </is>
       </c>
       <c r="S96" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Angela Rogers
-angela.rogers72@msn.com
-(617) 555-4803</t>
+Michelle James
+michelle.james@live.com
+(781) 555-6217</t>
         </is>
       </c>
       <c r="T96" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Cynthia Powell
-cpowell@live.com
-(978) 555-7869</t>
+Aaron H Young
+aaron787@yahoo.com
+(781) 555-0563</t>
         </is>
       </c>
     </row>
@@ -9094,25 +9098,25 @@
       <c r="R97" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Michelle Turner
-michelleturner@outlook.com
-(857) 555-8431</t>
+Angela Thompson
+athompson@icloud.com
+(508) 555-0288</t>
         </is>
       </c>
       <c r="S97" s="14" t="inlineStr">
         <is>
           <t>Council Unit Representative
-Jennifer Garcia
-jennifer.garcia83@comcast.net
-(978) 555-7006</t>
+Karen Ortiz
+karen.ortiz@comcast.net
+(781) 555-3726</t>
         </is>
       </c>
       <c r="T97" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-George J Hernandez
-georgehernandez@outlook.com
-(774) 555-4367</t>
+Sandra Gutierrez
+sandra673@outlook.com
+(857) 555-0945</t>
         </is>
       </c>
     </row>
@@ -9192,25 +9196,25 @@
       <c r="R98" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Kimberly V Kelly
-kimberly.kelly68@comcast.net
-(774) 555-2996</t>
+Dorothy H Howard
+dorothy.howard@msn.com
+(978) 555-9472</t>
         </is>
       </c>
       <c r="S98" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Samuel Reed
-samuel.reed@hotmail.com
-(508) 555-8641</t>
+Lisa Jenkins
+lisa.jenkins30@comcast.net
+(413) 555-4443</t>
         </is>
       </c>
       <c r="T98" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-John Hill
-johnhill@live.com
-(774) 555-3244</t>
+William Robinson
+william835@msn.com
+(351) 555-5459</t>
         </is>
       </c>
     </row>
@@ -9287,25 +9291,25 @@
       <c r="R99" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Deborah James
-deborahjames@hotmail.com
-(339) 555-0197</t>
+Donna Ross
+donna171@gmail.com
+(857) 555-1317</t>
         </is>
       </c>
       <c r="S99" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Laura Martinez
-laura.martinez73@yahoo.com
-(339) 555-3718</t>
+Olivia Turner
+oliviaturner@gmail.com
+(508) 555-8571</t>
         </is>
       </c>
       <c r="T99" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Nancy S Wilson
-nancy.wilson@aol.com
-(351) 555-6346</t>
+Thomas Watson
+thomas.watson96@hotmail.com
+(339) 555-4271</t>
         </is>
       </c>
     </row>
@@ -9382,25 +9386,25 @@
       <c r="R100" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Samantha U Rodriguez
-samantha.rodriguez@hotmail.com
-(774) 555-2261</t>
+Cynthia Hughes
+chughes@yahoo.com
+(351) 555-4794</t>
         </is>
       </c>
       <c r="S100" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Betty Mendoza
-betty.mendoza@verizon.net
-(978) 555-5850</t>
+Paul E Myers
+paul.myers@gmail.com
+(508) 555-9680</t>
         </is>
       </c>
       <c r="T100" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Michelle S Taylor
-michelle.taylor@live.com
-(508) 555-6408</t>
+Donna Patel
+donna.patel@aol.com
+(617) 555-9992</t>
         </is>
       </c>
     </row>
@@ -9480,25 +9484,25 @@
       <c r="R101" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Alexander Robinson
-alexander.robinson40@outlook.com
-(781) 555-6876</t>
+Joseph Gutierrez
+josephgutierrez@outlook.com
+(508) 555-5217</t>
         </is>
       </c>
       <c r="S101" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sarah Castillo
-sarah.castillo37@msn.com
-(857) 555-4747</t>
+Henry Sanders
+henrysanders@aol.com
+(774) 555-2940</t>
         </is>
       </c>
       <c r="T101" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Frances Parker
-frances.parker@live.com
-(774) 555-1796</t>
+Frances Jenkins
+frances.jenkins68@gmail.com
+(617) 555-4167</t>
         </is>
       </c>
     </row>
@@ -9578,25 +9582,25 @@
       <c r="R102" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Stephen V Mitchell
-stephen419@hotmail.com
-(413) 555-6905</t>
+Kevin Johnson
+kevin499@verizon.net
+(774) 555-1707</t>
         </is>
       </c>
       <c r="S102" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ryan Long
-ryan.long@verizon.net
-(617) 555-9066</t>
+Sarah Russell
+sarah.russell@gmail.com
+(351) 555-8370</t>
         </is>
       </c>
       <c r="T102" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Aaron Patel
-apatel@outlook.com
-(413) 555-8352</t>
+Jason Price
+jason.price36@msn.com
+(781) 555-0304</t>
         </is>
       </c>
     </row>
@@ -9676,25 +9680,25 @@
       <c r="R103" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Helen Young
-helenyoung@live.com
-(978) 555-4889</t>
+Amy Wright
+amywright@icloud.com
+(857) 555-6744</t>
         </is>
       </c>
       <c r="S103" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Benjamin Ramos
-benjaminramos@verizon.net
-(413) 555-4758</t>
+Alexander U Howard
+alexander.howard@hotmail.com
+(617) 555-5502</t>
         </is>
       </c>
       <c r="T103" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Stephen Gonzalez
-sgonzalez@outlook.com
-(617) 555-0625</t>
+Frank J Baker
+fbaker@verizon.net
+(339) 555-1805</t>
         </is>
       </c>
     </row>
@@ -9774,25 +9778,25 @@
       <c r="R104" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Sharon Evans
-sharon738@outlook.com
-(978) 555-9654</t>
+Raymond Y Murphy
+raymondmurphy@yahoo.com
+(351) 555-8034</t>
         </is>
       </c>
       <c r="S104" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Lisa Y Martin
-lisamartin@verizon.net
-(978) 555-9494</t>
+Jonathan Walker
+jwalker@aol.com
+(617) 555-4105</t>
         </is>
       </c>
       <c r="T104" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Richard H King
-rking@yahoo.com
-(781) 555-0329</t>
+Brandon Wright
+brandon980@icloud.com
+(774) 555-2118</t>
         </is>
       </c>
     </row>
@@ -9872,25 +9876,25 @@
       <c r="R105" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Gregory K Alvarez
-galvarez@hotmail.com
-(339) 555-4481</t>
+Sarah Johnson
+sarah.johnson@icloud.com
+(508) 555-3949</t>
         </is>
       </c>
       <c r="S105" s="14" t="inlineStr">
         <is>
           <t>Council Unit Representative
-Dennis Peterson
-dennis.peterson@verizon.net
-(351) 555-1742</t>
+Daniel R Russell
+danielrussell@yahoo.com
+(857) 555-3888</t>
         </is>
       </c>
       <c r="T105" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-David Chavez
-david.chavez@msn.com
-(617) 555-3222</t>
+Jerry Brown
+jerry.brown46@yahoo.com
+(978) 555-9899</t>
         </is>
       </c>
     </row>
@@ -9966,25 +9970,25 @@
       <c r="R106" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Aaron S Jenkins
-ajenkins@yahoo.com
-(978) 555-2203</t>
+Christine N Brooks
+christinebrooks@comcast.net
+(339) 555-0863</t>
         </is>
       </c>
       <c r="S106" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jason U Watson
-jason405@aol.com
-(857) 555-7257</t>
+Samantha Jackson
+samantha.jackson69@msn.com
+(978) 555-5372</t>
         </is>
       </c>
       <c r="T106" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Jessica Williams
-jessica.williams27@hotmail.com
-(978) 555-1266</t>
+Nancy Allen
+nancy921@aol.com
+(413) 555-0626</t>
         </is>
       </c>
     </row>
@@ -10060,25 +10064,25 @@
       <c r="R107" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jose Jimenez
-josejimenez@live.com
-(857) 555-9726</t>
+Joshua O Hughes
+joshua.hughes@yahoo.com
+(857) 555-1400</t>
         </is>
       </c>
       <c r="S107" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Steven F Cruz
-steven689@yahoo.com
-(617) 555-4804</t>
+Cynthia Evans
+cevans@icloud.com
+(857) 555-5891</t>
         </is>
       </c>
       <c r="T107" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Karen Ross
-karenross@msn.com
-(351) 555-3935</t>
+Richard J Lewis
+richard.lewis@gmail.com
+(617) 555-2034</t>
         </is>
       </c>
     </row>
@@ -10151,25 +10155,25 @@
       <c r="R108" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Robert King
-robertking@aol.com
-(978) 555-6564</t>
+Barbara Castillo
+barbaracastillo@icloud.com
+(857) 555-3288</t>
         </is>
       </c>
       <c r="S108" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jonathan K Lopez
-jonathanlopez@outlook.com
-(774) 555-8782</t>
+Elizabeth Collins
+elizabeth.collins@live.com
+(351) 555-5570</t>
         </is>
       </c>
       <c r="T108" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Jeffrey Gray
-jeffrey.gray47@aol.com
-(781) 555-2675</t>
+Jose W Baker
+jose.baker80@verizon.net
+(508) 555-8650</t>
         </is>
       </c>
     </row>
@@ -10242,25 +10246,25 @@
       <c r="R109" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Angela Gray
-angela.gray@comcast.net
-(413) 555-5008</t>
+Justin E Adams
+justin609@gmail.com
+(774) 555-5620</t>
         </is>
       </c>
       <c r="S109" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Emma B Ortiz
-emma.ortiz@icloud.com
-(339) 555-1900</t>
+Rachel X Ross
+rachelross@msn.com
+(774) 555-6575</t>
         </is>
       </c>
       <c r="T109" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Olivia Jackson
-ojackson@verizon.net
-(774) 555-6397</t>
+Donald Young
+dyoung@gmail.com
+(508) 555-1731</t>
         </is>
       </c>
     </row>
@@ -10336,25 +10340,25 @@
       <c r="R110" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Kimberly F Price
-kimberly.price70@msn.com
-(781) 555-8645</t>
+Emma Garcia
+egarcia@hotmail.com
+(413) 555-4358</t>
         </is>
       </c>
       <c r="S110" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Richard Scott
-richard.scott@gmail.com
-(774) 555-2759</t>
+Gregory K White
+gregory.white75@gmail.com
+(508) 555-9332</t>
         </is>
       </c>
       <c r="T110" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Angela X Harris
-angela.harris@live.com
-(617) 555-8932</t>
+Karen Myers
+karen930@icloud.com
+(781) 555-5399</t>
         </is>
       </c>
     </row>
@@ -10427,25 +10431,25 @@
       <c r="R111" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Thomas Gomez
-tgomez@gmail.com
-(508) 555-7454</t>
+Jonathan A Morales
+jonathan.morales@verizon.net
+(351) 555-1982</t>
         </is>
       </c>
       <c r="S111" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jack Bennett
-jack.bennett91@hotmail.com
-(351) 555-8887</t>
+Joseph Nelson
+joseph.nelson33@icloud.com
+(978) 555-4464</t>
         </is>
       </c>
       <c r="T111" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Eric Gutierrez
-egutierrez@comcast.net
-(351) 555-5991</t>
+Ruth Long
+ruth6@gmail.com
+(508) 555-9376</t>
         </is>
       </c>
     </row>
@@ -10521,25 +10525,25 @@
       <c r="R112" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Lisa Bennett
-lisa495@hotmail.com
-(781) 555-9038</t>
+Lisa Davis
+ldavis@outlook.com
+(339) 555-9683</t>
         </is>
       </c>
       <c r="S112" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Steven W Smith
-steven188@yahoo.com
-(978) 555-2786</t>
+Jason Young
+jason473@icloud.com
+(617) 555-3594</t>
         </is>
       </c>
       <c r="T112" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Ruth Z Allen
-ruth762@hotmail.com
-(413) 555-6878</t>
+Marie E Mitchell
+mmitchell@yahoo.com
+(774) 555-1949</t>
         </is>
       </c>
     </row>
@@ -10684,107 +10688,108 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D73" r:id="rId137"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N73" r:id="rId138"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q73" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N74" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D75" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N75" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D76" r:id="rId143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q76" r:id="rId144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D77" r:id="rId145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N77" r:id="rId146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q77" r:id="rId147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D78" r:id="rId148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q78" r:id="rId149"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D79" r:id="rId150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N79" r:id="rId151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D80" r:id="rId152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N80" r:id="rId153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q80" r:id="rId154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D81" r:id="rId155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N81" r:id="rId156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q81" r:id="rId157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D82" r:id="rId158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N82" r:id="rId159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D83" r:id="rId160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N83" r:id="rId161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q83" r:id="rId162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D84" r:id="rId163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N84" r:id="rId164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D85" r:id="rId165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N85" r:id="rId166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q85" r:id="rId167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D86" r:id="rId168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N86" r:id="rId169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q86" r:id="rId170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D87" r:id="rId171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N87" r:id="rId172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q87" r:id="rId173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D88" r:id="rId174"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N88" r:id="rId175"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D89" r:id="rId176"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N89" r:id="rId177"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q89" r:id="rId178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D90" r:id="rId179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N90" r:id="rId180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q90" r:id="rId181"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D91" r:id="rId182"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N91" r:id="rId183"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q91" r:id="rId184"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D92" r:id="rId185"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N92" r:id="rId186"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q92" r:id="rId187"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D93" r:id="rId188"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N93" r:id="rId189"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q93" r:id="rId190"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D94" r:id="rId191"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N94" r:id="rId192"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q94" r:id="rId193"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D95" r:id="rId194"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N95" r:id="rId195"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q95" r:id="rId196"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D96" r:id="rId197"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N96" r:id="rId198"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D97" r:id="rId199"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N97" r:id="rId200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q97" r:id="rId201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D98" r:id="rId202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N98" r:id="rId203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D99" r:id="rId204"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N99" r:id="rId205"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D100" r:id="rId206"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N100" r:id="rId207"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D101" r:id="rId208"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N101" r:id="rId209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q101" r:id="rId210"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D102" r:id="rId211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N102" r:id="rId212"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q102" r:id="rId213"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D103" r:id="rId214"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N103" r:id="rId215"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q103" r:id="rId216"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D104" r:id="rId217"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N104" r:id="rId218"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q104" r:id="rId219"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D105" r:id="rId220"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N105" r:id="rId221"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q105" r:id="rId222"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D106" r:id="rId223"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N106" r:id="rId224"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q106" r:id="rId225"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D107" r:id="rId226"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N107" r:id="rId227"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q107" r:id="rId228"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D108" r:id="rId229"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N108" r:id="rId230"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D109" r:id="rId231"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N109" r:id="rId232"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D110" r:id="rId233"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N110" r:id="rId234"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q110" r:id="rId235"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D111" r:id="rId236"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N111" r:id="rId237"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D112" r:id="rId238"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N112" r:id="rId239"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q112" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D74" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N74" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D75" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N75" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D76" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q76" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D77" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N77" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q77" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D78" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q78" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D79" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N79" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D80" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N80" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q80" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D81" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N81" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q81" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D82" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N82" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D83" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N83" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q83" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D84" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N84" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D85" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N85" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q85" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D86" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N86" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q86" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D87" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N87" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q87" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D88" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N88" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D89" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N89" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q89" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D90" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N90" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q90" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D91" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N91" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q91" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D92" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N92" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q92" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D93" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N93" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q93" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D94" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N94" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q94" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D95" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N95" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q95" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D96" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N96" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D97" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N97" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q97" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D98" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N98" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D99" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N99" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D100" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N100" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D101" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N101" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q101" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D102" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N102" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q102" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D103" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N103" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q103" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D104" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N104" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q104" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D105" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N105" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q105" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D106" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N106" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q106" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D107" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N107" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q107" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D108" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N108" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D109" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N109" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D110" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N110" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q110" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D111" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N111" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D112" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N112" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q112" r:id="rId241"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10853,21 +10858,21 @@
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>Generation Date/Time: September 08, 2025 at 09:28 AM</t>
+          <t>Generation Date/Time: 2025-09-25 20:13:49</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>Data Sources: BeAScout.org (10-mile search radius per zip code) + JoinExploring.org (20-mile search radius per zip code) + Key 3 08-22-2025.xlsx</t>
+          <t>Data Sources: BeAScout.org (10-mile search radius per zip code) + JoinExploring.org (20-mile search radius per zip code) + anonymized_key_three.json</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Last Complete BeAScout Data Retrieval: September 05, 2025 at 12:03 AM</t>
+          <t>Last Complete BeAScout Data Retrieval: 2025-09-05 00:03:39</t>
         </is>
       </c>
     </row>
@@ -11019,25 +11024,25 @@
       <c r="R10" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-William M Torres
-wtorres@msn.com
-(857) 555-2829</t>
+Sandra F Green
+sgreen@hotmail.com
+(774) 555-5897</t>
         </is>
       </c>
       <c r="S10" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Carol J Ramos
-carolramos@verizon.net
-(351) 555-4432</t>
+James Peterson
+jamespeterson@yahoo.com
+(351) 555-7846</t>
         </is>
       </c>
       <c r="T10" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Marie Martinez
-mariemartinez@live.com
-(413) 555-2380</t>
+Rachel Edwards
+rachel.edwards25@aol.com
+(978) 555-6754</t>
         </is>
       </c>
     </row>
@@ -11107,25 +11112,25 @@
       <c r="R11" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dorothy D Mendoza
-dorothymendoza@live.com
-(857) 555-9555</t>
+Helen Smith
+helen.smith87@msn.com
+(617) 555-0257</t>
         </is>
       </c>
       <c r="S11" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Kenneth Ramirez
-kenneth.ramirez@yahoo.com
-(617) 555-1984</t>
+Steven Moore
+steven.moore@aol.com
+(413) 555-7468</t>
         </is>
       </c>
       <c r="T11" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Anthony Miller
-anthony369@hotmail.com
-(617) 555-4168</t>
+Sharon F Lee
+sharon.lee@gmail.com
+(781) 555-6730</t>
         </is>
       </c>
     </row>
@@ -11189,25 +11194,25 @@
       <c r="R12" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Amy G Mendoza
-amy.mendoza80@outlook.com
-(508) 555-7161</t>
+Ruth Gutierrez
+ruth.gutierrez41@outlook.com
+(339) 555-8849</t>
         </is>
       </c>
       <c r="S12" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Justin Nelson
-justin748@verizon.net
-(857) 555-3693</t>
+Emma Turner
+eturner@yahoo.com
+(978) 555-4746</t>
         </is>
       </c>
       <c r="T12" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Karen Patel
-kpatel@hotmail.com
-(781) 555-5906</t>
+Kenneth Roberts
+kenneth935@outlook.com
+(978) 555-0003</t>
         </is>
       </c>
     </row>
@@ -11271,25 +11276,25 @@
       <c r="R13" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Alexander Martinez
-alexandermartinez@verizon.net
-(413) 555-0419</t>
+Sarah Alvarez
+salvarez@outlook.com
+(781) 555-8644</t>
         </is>
       </c>
       <c r="S13" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Richard Williams
-richardwilliams@icloud.com
-(857) 555-1292</t>
+Ashley N Wilson
+ashley993@icloud.com
+(978) 555-4791</t>
         </is>
       </c>
       <c r="T13" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-John Ramirez
-johnramirez@hotmail.com
-(617) 555-9853</t>
+Jerry Thompson
+jerrythompson@live.com
+(781) 555-9339</t>
         </is>
       </c>
     </row>
@@ -11350,17 +11355,17 @@
       <c r="R14" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Betty Adams
-bettyadams@live.com
-(339) 555-1057</t>
+Charles Reyes
+charlesreyes@msn.com
+(857) 555-2338</t>
         </is>
       </c>
       <c r="S14" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Richard N Clark
-richard.clark94@aol.com
-(339) 555-4293</t>
+Donna Bailey
+donnabailey@comcast.net
+(781) 555-6431</t>
         </is>
       </c>
       <c r="T14" s="14" t="inlineStr">
@@ -11426,17 +11431,17 @@
       <c r="R15" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Karen Thomas
-karen.thomas50@live.com
-(774) 555-0667</t>
+Deborah T Evans
+deborahevans@live.com
+(774) 555-6117</t>
         </is>
       </c>
       <c r="S15" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Mark Collins
-mark.collins94@msn.com
-(339) 555-9703</t>
+Lisa Martin
+lisamartin@icloud.com
+(781) 555-5545</t>
         </is>
       </c>
       <c r="T15" s="14" t="inlineStr">
@@ -11514,25 +11519,25 @@
       <c r="R16" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Adam Z Cook
-adam.cook77@msn.com
-(781) 555-1683</t>
+Karen D Richardson
+karen976@verizon.net
+(774) 555-9004</t>
         </is>
       </c>
       <c r="S16" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Carol Jenkins
-carol.jenkins@icloud.com
-(781) 555-3923</t>
+Mark King
+mark.king98@hotmail.com
+(339) 555-2797</t>
         </is>
       </c>
       <c r="T16" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Barbara Jimenez
-barbara.jimenez97@outlook.com
-(413) 555-4451</t>
+Marie D Carter
+marie985@comcast.net
+(351) 555-1862</t>
         </is>
       </c>
     </row>
@@ -11605,25 +11610,25 @@
       <c r="R17" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Michael Ward
-michaelward@icloud.com
-(774) 555-3992</t>
+Barbara D Stewart
+barbara.stewart@gmail.com
+(508) 555-7287</t>
         </is>
       </c>
       <c r="S17" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ronald Castillo
-ronaldcastillo@yahoo.com
-(508) 555-4930</t>
+Robert Foster
+robertfoster@icloud.com
+(617) 555-1403</t>
         </is>
       </c>
       <c r="T17" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Laura E Ortiz
-lortiz@aol.com
-(978) 555-1820</t>
+Raymond I Lewis
+raymondlewis@outlook.com
+(413) 555-7680</t>
         </is>
       </c>
     </row>
@@ -11696,25 +11701,25 @@
       <c r="R18" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Lisa Wilson
-lisa94@aol.com
-(508) 555-4251</t>
+Betty Lopez
+blopez@comcast.net
+(508) 555-5361</t>
         </is>
       </c>
       <c r="S18" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Lisa Brown
-lisa.brown77@hotmail.com
-(857) 555-7609</t>
+Michelle Jenkins
+michelle.jenkins29@comcast.net
+(781) 555-3082</t>
         </is>
       </c>
       <c r="T18" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Sandra I Rodriguez
-srodriguez@verizon.net
-(978) 555-6062</t>
+Sandra Gomez
+sandra.gomez@outlook.com
+(413) 555-1765</t>
         </is>
       </c>
     </row>
@@ -11791,25 +11796,25 @@
       <c r="R19" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Robert Kelly
-rkelly@outlook.com
-(339) 555-2729</t>
+Aaron L Garcia
+aaron.garcia@outlook.com
+(508) 555-9820</t>
         </is>
       </c>
       <c r="S19" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Joshua Rogers
-joshua.rogers1@outlook.com
-(351) 555-0712</t>
+Janet S Cox
+jcox@live.com
+(857) 555-5696</t>
         </is>
       </c>
       <c r="T19" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Sarah G Stewart
-sarah.stewart@comcast.net
-(508) 555-9567</t>
+Patricia Scott
+pscott@icloud.com
+(508) 555-4773</t>
         </is>
       </c>
     </row>
@@ -11880,25 +11885,25 @@
       <c r="R20" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Christopher Hall
-christopher.hall54@outlook.com
-(617) 555-8921</t>
+Elizabeth Mitchell
+elizabethmitchell@gmail.com
+(978) 555-1434</t>
         </is>
       </c>
       <c r="S20" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sandra H Lopez
-slopez@yahoo.com
-(978) 555-5343</t>
+Anthony Hughes
+anthonyhughes@live.com
+(978) 555-9945</t>
         </is>
       </c>
       <c r="T20" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Scott Richardson
-scott.richardson16@icloud.com
-(774) 555-6372</t>
+Edward Lopez
+elopez@hotmail.com
+(978) 555-7120</t>
         </is>
       </c>
     </row>
@@ -11971,25 +11976,25 @@
       <c r="R21" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donna Sanders
-donna660@yahoo.com
-(508) 555-3532</t>
+Edward Myers
+edward.myers@live.com
+(413) 555-6166</t>
         </is>
       </c>
       <c r="S21" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Barbara Alvarez
-balvarez@comcast.net
-(978) 555-5871</t>
+George Bailey
+george.bailey72@outlook.com
+(978) 555-7468</t>
         </is>
       </c>
       <c r="T21" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Scott N Torres
-storres@yahoo.com
-(978) 555-2195</t>
+Cynthia Anderson
+cynthia.anderson10@outlook.com
+(413) 555-2195</t>
         </is>
       </c>
     </row>
@@ -12063,25 +12068,25 @@
       <c r="R22" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-David Perez
-dperez@yahoo.com
-(781) 555-5860</t>
+Carol T Nelson
+carolnelson@hotmail.com
+(339) 555-4911</t>
         </is>
       </c>
       <c r="S22" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ronald Murphy
-ronald.murphy97@outlook.com
-(774) 555-9533</t>
+Linda Jones
+lindajones@hotmail.com
+(857) 555-8776</t>
         </is>
       </c>
       <c r="T22" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Janet Jones
-janet69@comcast.net
-(413) 555-3308</t>
+William Diaz
+william898@live.com
+(351) 555-9801</t>
         </is>
       </c>
     </row>
@@ -12154,25 +12159,25 @@
       <c r="R23" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-James Howard
-james.howard@icloud.com
-(617) 555-0264</t>
+Kevin I Green
+kevin27@outlook.com
+(339) 555-3115</t>
         </is>
       </c>
       <c r="S23" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Joseph O Taylor
-joseph.taylor@verizon.net
-(978) 555-2709</t>
+Sandra Torres
+sandra552@outlook.com
+(781) 555-0058</t>
         </is>
       </c>
       <c r="T23" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Angela Williams
-angela375@icloud.com
-(339) 555-9952</t>
+Scott Gonzalez
+scott.gonzalez@icloud.com
+(413) 555-6595</t>
         </is>
       </c>
     </row>
@@ -12239,25 +12244,25 @@
       <c r="R24" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Lisa Perry
-lisa63@comcast.net
-(617) 555-1847</t>
+Nancy Harris
+nancy.harris@outlook.com
+(978) 555-4092</t>
         </is>
       </c>
       <c r="S24" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Debra Jimenez
-debra.jimenez@aol.com
-(339) 555-2763</t>
+Sharon Williams
+sharon899@yahoo.com
+(413) 555-9247</t>
         </is>
       </c>
       <c r="T24" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Daniel Hughes
-dhughes@outlook.com
-(617) 555-1609</t>
+Barbara P Russell
+brussell@hotmail.com
+(413) 555-9349</t>
         </is>
       </c>
     </row>
@@ -12326,25 +12331,25 @@
       <c r="R25" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-James Edwards
-jamesedwards@yahoo.com
-(617) 555-9760</t>
+Charles Mitchell
+charles580@hotmail.com
+(339) 555-7530</t>
         </is>
       </c>
       <c r="S25" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Benjamin A Jones
-benjamin67@comcast.net
-(351) 555-0605</t>
+Joshua F Ward
+jward@verizon.net
+(508) 555-2793</t>
         </is>
       </c>
       <c r="T25" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Barbara Nelson
-barbara.nelson18@icloud.com
-(339) 555-8151</t>
+Karen L King
+kking@hotmail.com
+(617) 555-5842</t>
         </is>
       </c>
     </row>
@@ -12413,25 +12418,25 @@
       <c r="R26" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Ashley Perez
-aperez@comcast.net
-(781) 555-8016</t>
+Carol Baker
+carol.baker@hotmail.com
+(339) 555-8121</t>
         </is>
       </c>
       <c r="S26" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Karen Brown
-kbrown@aol.com
-(413) 555-2873</t>
+Paul Baker
+paul825@gmail.com
+(781) 555-0411</t>
         </is>
       </c>
       <c r="T26" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Henry Adams
-hadams@yahoo.com
-(978) 555-2479</t>
+Mark Hernandez
+mhernandez@outlook.com
+(857) 555-6961</t>
         </is>
       </c>
     </row>
@@ -12501,25 +12506,25 @@
       <c r="R27" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Helen Morales
-helenmorales@gmail.com
-(351) 555-5933</t>
+Patricia Nguyen
+patricianguyen@icloud.com
+(617) 555-2623</t>
         </is>
       </c>
       <c r="S27" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Marie Gonzalez
-marie267@outlook.com
-(781) 555-2953</t>
+Catherine Gutierrez
+catherinegutierrez@icloud.com
+(617) 555-3988</t>
         </is>
       </c>
       <c r="T27" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Ronald Q Allen
-rallen@yahoo.com
-(351) 555-1205</t>
+Sarah Baker
+sbaker@outlook.com
+(617) 555-0221</t>
         </is>
       </c>
     </row>
@@ -12584,25 +12589,25 @@
       <c r="R28" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Scott C Lopez
-slopez@verizon.net
-(508) 555-1853</t>
+Betty Chavez
+bettychavez@live.com
+(978) 555-4967</t>
         </is>
       </c>
       <c r="S28" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Raymond Morgan
-rmorgan@yahoo.com
-(857) 555-6156</t>
+Charles Z Smith
+charles742@aol.com
+(508) 555-1089</t>
         </is>
       </c>
       <c r="T28" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Kenneth Alvarez
-kenneth.alvarez@yahoo.com
-(978) 555-3702</t>
+Dennis Hall
+dennis.hall71@hotmail.com
+(339) 555-4696</t>
         </is>
       </c>
     </row>
@@ -12679,25 +12684,25 @@
       <c r="R29" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Samantha Roberts
-samantha.roberts91@yahoo.com
-(857) 555-0258</t>
+Ashley A Cook
+acook@hotmail.com
+(774) 555-4290</t>
         </is>
       </c>
       <c r="S29" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Donna V Baker
-donnabaker@live.com
-(508) 555-5998</t>
+Richard Ramos
+richard.ramos31@gmail.com
+(774) 555-0489</t>
         </is>
       </c>
       <c r="T29" s="14" t="inlineStr">
         <is>
           <t>Venturing Crew Advisor
-Angela Ruiz
-angela975@yahoo.com
-(774) 555-0847</t>
+Sandra Miller
+sandra586@gmail.com
+(413) 555-8323</t>
         </is>
       </c>
     </row>
@@ -12778,25 +12783,25 @@
       <c r="R30" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Edward Ross
-edward.ross@live.com
-(339) 555-3471</t>
+Jennifer D Castillo
+jennifer.castillo21@outlook.com
+(413) 555-1656</t>
         </is>
       </c>
       <c r="S30" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Brandon W Carter
-brandon.carter@verizon.net
-(413) 555-6428</t>
+Olivia P Miller
+omiller@verizon.net
+(857) 555-9739</t>
         </is>
       </c>
       <c r="T30" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Mark Myers
-mark282@outlook.com
-(774) 555-2946</t>
+Jason Reyes
+jason.reyes3@icloud.com
+(339) 555-7509</t>
         </is>
       </c>
     </row>
@@ -12870,25 +12875,25 @@
       <c r="R31" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Scott Murphy
-scott771@hotmail.com
-(508) 555-4931</t>
+Lisa Jackson
+lisa.jackson@hotmail.com
+(413) 555-2336</t>
         </is>
       </c>
       <c r="S31" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Karen Williams
-karen.williams@live.com
-(781) 555-6279</t>
+Daniel Evans
+devans@msn.com
+(351) 555-5393</t>
         </is>
       </c>
       <c r="T31" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Benjamin Morales
-benjaminmorales@icloud.com
-(781) 555-5005</t>
+Olivia Jones
+olivia340@hotmail.com
+(857) 555-6604</t>
         </is>
       </c>
     </row>
@@ -12969,25 +12974,25 @@
       <c r="R32" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Timothy F Brown
-timothy289@hotmail.com
-(978) 555-0345</t>
+Frank Castillo
+frank.castillo@gmail.com
+(413) 555-2782</t>
         </is>
       </c>
       <c r="S32" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-James Martinez
-jamesmartinez@hotmail.com
-(857) 555-3910</t>
+David Chavez
+david.chavez4@live.com
+(339) 555-6613</t>
         </is>
       </c>
       <c r="T32" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Rachel Y Williams
-rachel.williams@icloud.com
-(413) 555-5080</t>
+George Turner
+george.turner@icloud.com
+(508) 555-7705</t>
         </is>
       </c>
     </row>
@@ -13064,25 +13069,25 @@
       <c r="R33" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jennifer Gray
-jennifer.gray@verizon.net
-(351) 555-9549</t>
+Kimberly E Richardson
+kimberly.richardson41@gmail.com
+(351) 555-2396</t>
         </is>
       </c>
       <c r="S33" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Donna Ramos
-donna.ramos89@live.com
-(617) 555-7977</t>
+Patricia Castillo
+patricia852@aol.com
+(781) 555-1204</t>
         </is>
       </c>
       <c r="T33" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Gary Rivera
-gary934@hotmail.com
-(781) 555-0265</t>
+Janet Ortiz
+jortiz@gmail.com
+(413) 555-3022</t>
         </is>
       </c>
     </row>
@@ -13155,25 +13160,25 @@
       <c r="R34" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Daniel Reyes
-danielreyes@outlook.com
-(339) 555-4389</t>
+Sarah Phillips
+sarah489@msn.com
+(781) 555-7896</t>
         </is>
       </c>
       <c r="S34" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Cynthia Diaz
-cynthia681@gmail.com
-(617) 555-0603</t>
+Sarah Foster
+sarah.foster48@icloud.com
+(978) 555-3005</t>
         </is>
       </c>
       <c r="T34" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Dennis J Bennett
-dennis.bennett84@verizon.net
-(413) 555-8865</t>
+Kimberly Jackson
+kimberly.jackson15@verizon.net
+(774) 555-2888</t>
         </is>
       </c>
     </row>
@@ -13250,25 +13255,25 @@
       <c r="R35" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Douglas U Howard
-douglashoward@gmail.com
-(978) 555-4096</t>
+Aaron Hughes
+aaronhughes@yahoo.com
+(978) 555-9018</t>
         </is>
       </c>
       <c r="S35" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Tyler J Foster
-tyler.foster98@icloud.com
-(617) 555-1998</t>
+Susan Kelly
+skelly@msn.com
+(781) 555-6324</t>
         </is>
       </c>
       <c r="T35" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-George Rogers
-george.rogers@hotmail.com
-(857) 555-7358</t>
+Justin Mendoza
+justin.mendoza@gmail.com
+(857) 555-1983</t>
         </is>
       </c>
     </row>
@@ -13345,25 +13350,25 @@
       <c r="R36" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Marie G Cooper
-marie.cooper@aol.com
-(617) 555-8862</t>
+Patricia T Lee
+plee@live.com
+(781) 555-4385</t>
         </is>
       </c>
       <c r="S36" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Steven E Jimenez
-stevenjimenez@aol.com
-(339) 555-2725</t>
+Linda Watson
+linda.watson93@yahoo.com
+(781) 555-4921</t>
         </is>
       </c>
       <c r="T36" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Tyler Bennett
-tylerbennett@live.com
-(339) 555-2761</t>
+Jacob Garcia
+jacob.garcia@comcast.net
+(617) 555-0130</t>
         </is>
       </c>
     </row>
@@ -13440,25 +13445,25 @@
       <c r="R37" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donald Perry
-donaldperry@live.com
-(857) 555-3934</t>
+Jacob N Rivera
+jrivera@gmail.com
+(351) 555-8116</t>
         </is>
       </c>
       <c r="S37" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Christopher X Wright
-christopher.wright@hotmail.com
-(508) 555-4117</t>
+Carol Reyes
+carol.reyes@aol.com
+(617) 555-9819</t>
         </is>
       </c>
       <c r="T37" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Carol Davis
-caroldavis@gmail.com
-(978) 555-8916</t>
+Sarah Perry
+sarah.perry@hotmail.com
+(339) 555-3370</t>
         </is>
       </c>
     </row>
@@ -13539,25 +13544,25 @@
       <c r="R38" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Laura Young
-laura380@icloud.com
-(978) 555-2619</t>
+Paul S Edwards
+pauledwards@aol.com
+(339) 555-3926</t>
         </is>
       </c>
       <c r="S38" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ryan Patel
-ryan.patel62@msn.com
-(774) 555-9884</t>
+Ruth Davis
+ruthdavis@comcast.net
+(339) 555-2713</t>
         </is>
       </c>
       <c r="T38" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Paul Williams
-paul928@outlook.com
-(781) 555-7001</t>
+Frances Morris
+frances.morris@msn.com
+(339) 555-2306</t>
         </is>
       </c>
     </row>
@@ -13634,25 +13639,25 @@
       <c r="R39" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Brandon Cooper
-brandon.cooper41@verizon.net
-(339) 555-5179</t>
+Olivia H Bennett
+olivia505@outlook.com
+(774) 555-1209</t>
         </is>
       </c>
       <c r="S39" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jack White
-jack.white67@verizon.net
-(508) 555-2556</t>
+Ashley Foster
+ashley.foster82@gmail.com
+(339) 555-1861</t>
         </is>
       </c>
       <c r="T39" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Sharon O Parker
-sharon.parker72@gmail.com
-(617) 555-4660</t>
+Angela O Parker
+angelaparker@icloud.com
+(413) 555-4830</t>
         </is>
       </c>
     </row>
@@ -13730,25 +13735,25 @@
       <c r="R40" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-James U Hughes
-james465@outlook.com
-(774) 555-3278</t>
+John Rogers
+john88@aol.com
+(781) 555-3397</t>
         </is>
       </c>
       <c r="S40" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Brenda W Gonzalez
-brenda659@comcast.net
-(339) 555-6418</t>
+Deborah Morgan
+deborahmorgan@live.com
+(978) 555-0054</t>
         </is>
       </c>
       <c r="T40" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Kenneth L Powell
-kenneth.powell73@hotmail.com
-(339) 555-8737</t>
+Jerry Williams
+jerry51@icloud.com
+(413) 555-9269</t>
         </is>
       </c>
     </row>
@@ -13826,25 +13831,25 @@
       <c r="R41" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Ryan Castillo
-ryancastillo@aol.com
-(774) 555-4210</t>
+Ryan P Lee
+ryan200@hotmail.com
+(781) 555-0225</t>
         </is>
       </c>
       <c r="S41" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Helen Kelly
-helen.kelly@hotmail.com
-(857) 555-2752</t>
+Timothy Parker
+timothy.parker@msn.com
+(857) 555-2131</t>
         </is>
       </c>
       <c r="T41" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Dennis Turner
-dennis.turner33@msn.com
-(978) 555-8960</t>
+Christopher Long
+christopher680@comcast.net
+(339) 555-3293</t>
         </is>
       </c>
     </row>
@@ -13917,25 +13922,25 @@
       <c r="R42" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Tyler Cooper
-tyler.cooper78@icloud.com
-(781) 555-3369</t>
+Mark Hill
+markhill@live.com
+(774) 555-0205</t>
         </is>
       </c>
       <c r="S42" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Lisa Castillo
-lisacastillo@hotmail.com
-(339) 555-1935</t>
+Stephen Sanchez
+ssanchez@gmail.com
+(774) 555-9608</t>
         </is>
       </c>
       <c r="T42" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Alexander Gonzalez
-alexander253@outlook.com
-(413) 555-9153</t>
+Brian T Rivera
+brivera@outlook.com
+(978) 555-2252</t>
         </is>
       </c>
     </row>
@@ -14007,25 +14012,25 @@
       <c r="R43" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Barbara Powell
-barbara527@live.com
-(617) 555-3721</t>
+Deborah Gonzalez
+deborahgonzalez@icloud.com
+(351) 555-6564</t>
         </is>
       </c>
       <c r="S43" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Deborah Young
-deborah230@aol.com
-(781) 555-1425</t>
+Kevin Mitchell
+kevinmitchell@gmail.com
+(617) 555-9554</t>
         </is>
       </c>
       <c r="T43" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Henry I Walker
-henrywalker@outlook.com
-(857) 555-8171</t>
+Jose Hill
+jose.hill88@outlook.com
+(978) 555-2402</t>
         </is>
       </c>
     </row>
@@ -14099,25 +14104,25 @@
       <c r="R44" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Paul Thomas
-paul571@live.com
-(413) 555-4862</t>
+Olivia Kelly
+okelly@outlook.com
+(774) 555-5712</t>
         </is>
       </c>
       <c r="S44" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Gregory Cooper
-gregory.cooper78@outlook.com
-(781) 555-1178</t>
+Jack Murphy
+jack509@gmail.com
+(774) 555-0050</t>
         </is>
       </c>
       <c r="T44" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Laura Morales
-lauramorales@gmail.com
-(617) 555-6787</t>
+Mark Stewart
+mstewart@icloud.com
+(351) 555-3173</t>
         </is>
       </c>
     </row>
@@ -14190,25 +14195,25 @@
       <c r="R45" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Donna U Parker
-donnaparker@live.com
-(781) 555-4462</t>
+Carol Mitchell
+cmitchell@icloud.com
+(774) 555-3718</t>
         </is>
       </c>
       <c r="S45" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Gregory Y Mendoza
-gregory600@aol.com
-(339) 555-6879</t>
+Janet P Martinez
+janet593@verizon.net
+(339) 555-3526</t>
         </is>
       </c>
       <c r="T45" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Sarah Howard
-showard@icloud.com
-(774) 555-3508</t>
+Nancy Richardson
+nrichardson@gmail.com
+(617) 555-8190</t>
         </is>
       </c>
     </row>
@@ -14281,25 +14286,25 @@
       <c r="R46" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Rachel Williams
-rachelwilliams@live.com
-(351) 555-1147</t>
+Amy R Clark
+amy.clark87@yahoo.com
+(781) 555-6029</t>
         </is>
       </c>
       <c r="S46" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Marie Gutierrez
-mgutierrez@outlook.com
-(978) 555-0734</t>
+Aaron Nguyen
+aaron.nguyen4@yahoo.com
+(508) 555-8000</t>
         </is>
       </c>
       <c r="T46" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-David Morgan
-david.morgan82@verizon.net
-(774) 555-4532</t>
+Ryan I Bailey
+ryan.bailey@live.com
+(413) 555-4993</t>
         </is>
       </c>
     </row>
@@ -14379,25 +14384,25 @@
       <c r="R47" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Stephen Young
-stephenyoung@comcast.net
-(774) 555-2520</t>
+Jacob Jenkins
+jacob.jenkins10@comcast.net
+(781) 555-4200</t>
         </is>
       </c>
       <c r="S47" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Debra Anderson
-debra583@outlook.com
-(413) 555-8431</t>
+Michelle Y Peterson
+michelle.peterson@comcast.net
+(774) 555-5601</t>
         </is>
       </c>
       <c r="T47" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Charles Jackson
-charlesjackson@yahoo.com
-(781) 555-2049</t>
+Dorothy King
+dorothyking@gmail.com
+(978) 555-0647</t>
         </is>
       </c>
     </row>
@@ -14476,25 +14481,25 @@
       <c r="R48" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Janet Williams
-janet.williams@aol.com
-(508) 555-3652</t>
+Justin D Cruz
+justin.cruz64@outlook.com
+(978) 555-0973</t>
         </is>
       </c>
       <c r="S48" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Thomas Brown
-thomas171@icloud.com
-(857) 555-2248</t>
+Patricia Moore
+pmoore@live.com
+(781) 555-8068</t>
         </is>
       </c>
       <c r="T48" s="14" t="inlineStr">
         <is>
           <t>Skipper
-Samantha Miller
-samantha.miller60@hotmail.com
-(413) 555-8909</t>
+Amy Thomas
+athomas@comcast.net
+(351) 555-5911</t>
         </is>
       </c>
     </row>
@@ -14573,25 +14578,25 @@
       <c r="R49" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jonathan Johnson
-jjohnson@outlook.com
-(857) 555-7461</t>
+Marie Edwards
+marie.edwards@yahoo.com
+(413) 555-2102</t>
         </is>
       </c>
       <c r="S49" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-John Edwards
-johnedwards@msn.com
-(413) 555-0330</t>
+Gary G Perry
+garyperry@aol.com
+(774) 555-0834</t>
         </is>
       </c>
       <c r="T49" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Helen P Murphy
-helen.murphy1@icloud.com
-(351) 555-2879</t>
+Helen I Moore
+helen.moore37@msn.com
+(351) 555-0771</t>
         </is>
       </c>
     </row>
@@ -14666,25 +14671,25 @@
       <c r="R50" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Ronald O Miller
-ronald897@comcast.net
-(857) 555-5899</t>
+Elizabeth Jimenez
+elizabeth.jimenez@msn.com
+(413) 555-6237</t>
         </is>
       </c>
       <c r="S50" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jeffrey Reed
-jreed@aol.com
-(857) 555-1445</t>
+Laura C Hall
+laura339@gmail.com
+(508) 555-2200</t>
         </is>
       </c>
       <c r="T50" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Timothy Brown
-timothy.brown41@msn.com
-(774) 555-6661</t>
+Dorothy Moore
+dorothy470@msn.com
+(339) 555-0177</t>
         </is>
       </c>
     </row>
@@ -14760,25 +14765,25 @@
       <c r="R51" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Laura U King
-laura.king18@icloud.com
-(617) 555-2746</t>
+Sarah Martin
+sarah242@msn.com
+(508) 555-7323</t>
         </is>
       </c>
       <c r="S51" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Emma Peterson
-emmapeterson@verizon.net
-(978) 555-3906</t>
+Samantha Evans
+samantha.evans@comcast.net
+(857) 555-1356</t>
         </is>
       </c>
       <c r="T51" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Scott Miller
-scottmiller@comcast.net
-(781) 555-4958</t>
+Cynthia Taylor
+ctaylor@hotmail.com
+(508) 555-8295</t>
         </is>
       </c>
     </row>
@@ -14853,25 +14858,25 @@
       <c r="R52" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Patrick N Hughes
-patrick.hughes48@msn.com
-(978) 555-2899</t>
+James Q Cook
+jcook@gmail.com
+(351) 555-1442</t>
         </is>
       </c>
       <c r="S52" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ashley Patel
-ashleypatel@live.com
-(774) 555-2615</t>
+Sharon A Nguyen
+sharon.nguyen8@yahoo.com
+(339) 555-3432</t>
         </is>
       </c>
       <c r="T52" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Jacob Cooper
-jacob727@outlook.com
-(351) 555-6866</t>
+Helen Watson
+hwatson@aol.com
+(857) 555-9310</t>
         </is>
       </c>
     </row>
@@ -14947,25 +14952,25 @@
       <c r="R53" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Larry Adams
-larry331@icloud.com
-(617) 555-8880</t>
+Tyler Nelson
+tylernelson@live.com
+(978) 555-2891</t>
         </is>
       </c>
       <c r="S53" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Ashley E Roberts
-aroberts@msn.com
-(978) 555-5790</t>
+Jerry N White
+jerry.white24@icloud.com
+(339) 555-3056</t>
         </is>
       </c>
       <c r="T53" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Jacob Russell
-jrussell@verizon.net
-(774) 555-1132</t>
+Betty R Wright
+bwright@icloud.com
+(617) 555-9698</t>
         </is>
       </c>
     </row>
@@ -15041,25 +15046,25 @@
       <c r="R54" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Sandra Price
-sandra.price@aol.com
-(978) 555-1624</t>
+Helen C Martin
+helen.martin14@aol.com
+(774) 555-9415</t>
         </is>
       </c>
       <c r="S54" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jerry K Cooper
-jcooper@icloud.com
-(617) 555-9706</t>
+Douglas Smith
+douglas292@gmail.com
+(774) 555-7187</t>
         </is>
       </c>
       <c r="T54" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Adam Ruiz
-adam.ruiz10@gmail.com
-(781) 555-0803</t>
+Rachel M Bailey
+rbailey@comcast.net
+(617) 555-6403</t>
         </is>
       </c>
     </row>
@@ -15129,25 +15134,25 @@
       <c r="R55" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Gary Walker
-gwalker@aol.com
-(351) 555-0403</t>
+Ronald Cook
+ronaldcook@outlook.com
+(508) 555-5668</t>
         </is>
       </c>
       <c r="S55" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Angela Rodriguez
-angela.rodriguez@live.com
-(339) 555-4344</t>
+Douglas Rivera
+drivera@live.com
+(351) 555-6324</t>
         </is>
       </c>
       <c r="T55" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Christine Evans
-christine.evans7@yahoo.com
-(978) 555-6897</t>
+Jacob N Gonzalez
+jacobgonzalez@comcast.net
+(413) 555-6668</t>
         </is>
       </c>
     </row>
@@ -15223,25 +15228,25 @@
       <c r="R56" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dorothy Price
-dorothy.price84@gmail.com
-(978) 555-7174</t>
+Jose Cox
+josecox@verizon.net
+(339) 555-9081</t>
         </is>
       </c>
       <c r="S56" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-William Gomez
-william.gomez6@yahoo.com
-(617) 555-5004</t>
+Jack Foster
+jackfoster@icloud.com
+(508) 555-2847</t>
         </is>
       </c>
       <c r="T56" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Linda J Cook
-linda.cook@outlook.com
-(617) 555-2834</t>
+Tyler Foster
+tfoster@verizon.net
+(339) 555-8938</t>
         </is>
       </c>
     </row>
@@ -15321,25 +15326,25 @@
       <c r="R57" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Michael K Rogers
-michael.rogers17@yahoo.com
-(978) 555-6037</t>
+Jose Perez
+jperez@aol.com
+(508) 555-5541</t>
         </is>
       </c>
       <c r="S57" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Christopher Powell
-christopherpowell@hotmail.com
-(978) 555-7229</t>
+Gregory Miller
+gregorymiller@aol.com
+(857) 555-0251</t>
         </is>
       </c>
       <c r="T57" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Gary L Price
-garyprice@comcast.net
-(774) 555-3315</t>
+Nancy N Johnson
+nancy.johnson@live.com
+(781) 555-7180</t>
         </is>
       </c>
     </row>
@@ -15419,25 +15424,25 @@
       <c r="R58" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Debra W Hughes
-debra.hughes@outlook.com
-(351) 555-7869</t>
+Mary Moore
+mary.moore@outlook.com
+(774) 555-7510</t>
         </is>
       </c>
       <c r="S58" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Benjamin N Morales
-benjamin.morales@gmail.com
-(351) 555-7987</t>
+Carol Stewart
+carol.stewart@live.com
+(978) 555-9488</t>
         </is>
       </c>
       <c r="T58" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Brandon Morgan
-bmorgan@hotmail.com
-(339) 555-7102</t>
+Janet F Clark
+janetclark@hotmail.com
+(781) 555-2709</t>
         </is>
       </c>
     </row>
@@ -15517,25 +15522,25 @@
       <c r="R59" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Richard Castillo
-richard.castillo@icloud.com
-(339) 555-8082</t>
+Dorothy Clark
+dorothy.clark@msn.com
+(339) 555-0798</t>
         </is>
       </c>
       <c r="S59" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Daniel Smith
-daniel297@gmail.com
-(857) 555-5729</t>
+Marie Rivera
+marierivera@msn.com
+(617) 555-8666</t>
         </is>
       </c>
       <c r="T59" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Alexander James
-alexanderjames@yahoo.com
-(781) 555-4225</t>
+Tyler Lopez
+tyler424@verizon.net
+(781) 555-8245</t>
         </is>
       </c>
     </row>
@@ -15615,25 +15620,25 @@
       <c r="R60" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Michelle Rogers
-michelle.rogers90@outlook.com
-(351) 555-3509</t>
+Sarah O Evans
+sarah.evans@outlook.com
+(339) 555-4056</t>
         </is>
       </c>
       <c r="S60" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Tyler Jenkins
-tyler903@yahoo.com
-(351) 555-9536</t>
+Eric Mitchell
+ericmitchell@msn.com
+(781) 555-2529</t>
         </is>
       </c>
       <c r="T60" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Timothy Kim
-timothykim@gmail.com
-(774) 555-6061</t>
+Jessica Parker
+jessica.parker@hotmail.com
+(351) 555-2923</t>
         </is>
       </c>
     </row>
@@ -15713,25 +15718,25 @@
       <c r="R61" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Steven B Phillips
-sphillips@outlook.com
-(351) 555-1891</t>
+Betty Robinson
+brobinson@hotmail.com
+(508) 555-1330</t>
         </is>
       </c>
       <c r="S61" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Gregory S Powell
-gregory645@yahoo.com
-(978) 555-0538</t>
+Jack King
+jack.king@comcast.net
+(339) 555-8106</t>
         </is>
       </c>
       <c r="T61" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Sarah Thompson
-sarahthompson@outlook.com
-(339) 555-1216</t>
+Karen U Gomez
+karen.gomez@gmail.com
+(781) 555-0057</t>
         </is>
       </c>
     </row>
@@ -15807,25 +15812,25 @@
       <c r="R62" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Larry Ruiz
-larry639@gmail.com
-(774) 555-1385</t>
+Jessica Rodriguez
+jessica.rodriguez@aol.com
+(781) 555-8422</t>
         </is>
       </c>
       <c r="S62" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Tyler Jackson
-tjackson@icloud.com
-(351) 555-1469</t>
+Kimberly L Johnson
+kimberly42@icloud.com
+(781) 555-3195</t>
         </is>
       </c>
       <c r="T62" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Robert V Ortiz
-rortiz@gmail.com
-(857) 555-7738</t>
+Alexander M Wilson
+awilson@yahoo.com
+(774) 555-0609</t>
         </is>
       </c>
     </row>
@@ -15905,25 +15910,25 @@
       <c r="R63" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Ashley Mitchell
-ashley.mitchell74@live.com
-(857) 555-9430</t>
+Angela W Lopez
+angela848@icloud.com
+(781) 555-9537</t>
         </is>
       </c>
       <c r="S63" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Tyler R Campbell
-tyler165@gmail.com
-(781) 555-6701</t>
+Mark Smith
+mark.smith78@aol.com
+(413) 555-1692</t>
         </is>
       </c>
       <c r="T63" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Jose Perez
-joseperez@yahoo.com
-(857) 555-0131</t>
+Laura Flores
+laura.flores@comcast.net
+(857) 555-9320</t>
         </is>
       </c>
     </row>
@@ -15999,17 +16004,17 @@
       <c r="R64" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Sharon J Kelly
-sharon18@icloud.com
-(774) 555-2030</t>
+Donald Gonzalez
+donald.gonzalez@outlook.com
+(774) 555-8704</t>
         </is>
       </c>
       <c r="S64" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Donna Roberts
-donna.roberts@hotmail.com
-(339) 555-0016</t>
+Amy Y Young
+amy.young16@msn.com
+(617) 555-9569</t>
         </is>
       </c>
       <c r="T64" s="14" t="inlineStr">
@@ -16094,25 +16099,25 @@
       <c r="R65" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Brenda Phillips
-brenda636@msn.com
-(774) 555-3157</t>
+Rachel G Russell
+rachel584@comcast.net
+(351) 555-1664</t>
         </is>
       </c>
       <c r="S65" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jacob Cox
-jacobcox@msn.com
-(339) 555-3406</t>
+Ryan B Watson
+ryan.watson26@outlook.com
+(617) 555-8056</t>
         </is>
       </c>
       <c r="T65" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Mary Wood
-marywood@gmail.com
-(617) 555-3306</t>
+Carol B Mitchell
+carol.mitchell@aol.com
+(413) 555-3395</t>
         </is>
       </c>
     </row>
@@ -16192,25 +16197,25 @@
       <c r="R66" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Debra Wood
-debra.wood@outlook.com
-(857) 555-0970</t>
+Sarah M Johnson
+sarahjohnson@gmail.com
+(781) 555-6929</t>
         </is>
       </c>
       <c r="S66" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Frank Jones
-frank405@hotmail.com
-(774) 555-3193</t>
+Nancy Perez
+nancy597@hotmail.com
+(508) 555-8622</t>
         </is>
       </c>
       <c r="T66" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-John Young
-john648@outlook.com
-(351) 555-2437</t>
+Michael J Morales
+mmorales@hotmail.com
+(351) 555-0553</t>
         </is>
       </c>
     </row>
@@ -16290,25 +16295,25 @@
       <c r="R67" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Emma W Rogers
-emmarogers@comcast.net
-(978) 555-4630</t>
+Kimberly Roberts
+kroberts@yahoo.com
+(857) 555-1161</t>
         </is>
       </c>
       <c r="S67" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Brenda W Gomez
-brenda.gomez45@outlook.com
-(617) 555-9498</t>
+Samuel X Martin
+samuel294@live.com
+(978) 555-9006</t>
         </is>
       </c>
       <c r="T67" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Adam Ross
-aross@icloud.com
-(781) 555-3218</t>
+Eric Ruiz
+eric.ruiz@msn.com
+(781) 555-9011</t>
         </is>
       </c>
     </row>
@@ -16387,25 +16392,25 @@
       <c r="R68" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Marie Ortiz
-marie.ortiz88@gmail.com
-(781) 555-0073</t>
+Sandra Murphy
+sandra.murphy@icloud.com
+(351) 555-1848</t>
         </is>
       </c>
       <c r="S68" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Justin B Wright
-justinwright@verizon.net
-(617) 555-1124</t>
+Karen Stewart
+karen.stewart86@hotmail.com
+(351) 555-6719</t>
         </is>
       </c>
       <c r="T68" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Kenneth W Lopez
-kennethlopez@verizon.net
-(508) 555-5249</t>
+Jerry Young
+jerry.young79@outlook.com
+(857) 555-6893</t>
         </is>
       </c>
     </row>
@@ -16481,25 +16486,25 @@
       <c r="R69" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Carol Rodriguez
-carolrodriguez@yahoo.com
-(781) 555-0103</t>
+Karen Q Rivera
+karen.rivera73@yahoo.com
+(508) 555-7648</t>
         </is>
       </c>
       <c r="S69" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Karen O Baker
-karen.baker@hotmail.com
-(339) 555-2575</t>
+Daniel Brooks
+danielbrooks@outlook.com
+(339) 555-6395</t>
         </is>
       </c>
       <c r="T69" s="14" t="inlineStr">
         <is>
           <t>Cubmaster
-Samuel Ross
-sross@live.com
-(508) 555-5039</t>
+Patrick Young
+patrick.young39@icloud.com
+(351) 555-7422</t>
         </is>
       </c>
     </row>
@@ -16572,25 +16577,25 @@
       <c r="R70" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dorothy Jimenez
-dorothyjimenez@msn.com
-(781) 555-8900</t>
+Jonathan Wright
+jonathan.wright@live.com
+(774) 555-9762</t>
         </is>
       </c>
       <c r="S70" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Charles Kim
-charleskim@hotmail.com
-(508) 555-2012</t>
+Michael Green
+michael.green@icloud.com
+(781) 555-5461</t>
         </is>
       </c>
       <c r="T70" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Dorothy Lee
-dlee@verizon.net
-(857) 555-2813</t>
+Gregory D Phillips
+gregory454@comcast.net
+(351) 555-5780</t>
         </is>
       </c>
     </row>
@@ -16666,25 +16671,25 @@
       <c r="R71" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Helen Reed
-helenreed@yahoo.com
-(978) 555-6391</t>
+Marie Evans
+marie.evans39@verizon.net
+(413) 555-5236</t>
         </is>
       </c>
       <c r="S71" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Janet T Adams
-janet391@msn.com
-(339) 555-1519</t>
+Dennis T Rodriguez
+drodriguez@gmail.com
+(857) 555-0943</t>
         </is>
       </c>
       <c r="T71" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Gregory Castillo
-gcastillo@verizon.net
-(617) 555-2038</t>
+Steven Chavez
+steven.chavez53@hotmail.com
+(781) 555-8277</t>
         </is>
       </c>
     </row>
@@ -16760,25 +16765,25 @@
       <c r="R72" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Lisa Flores
-lisa414@comcast.net
-(508) 555-2610</t>
+Michelle Young
+myoung@icloud.com
+(351) 555-6040</t>
         </is>
       </c>
       <c r="S72" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Tyler Martinez
-tmartinez@aol.com
-(774) 555-2234</t>
+Betty Mitchell
+betty.mitchell3@outlook.com
+(339) 555-0709</t>
         </is>
       </c>
       <c r="T72" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Anthony Ross
-anthony.ross@aol.com
-(508) 555-6677</t>
+Frank Q Hall
+fhall@aol.com
+(508) 555-6153</t>
         </is>
       </c>
     </row>
@@ -16854,25 +16859,25 @@
       <c r="R73" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Jennifer J Jimenez
-jennifer794@comcast.net
-(508) 555-8899</t>
+Barbara Williams
+barbarawilliams@live.com
+(413) 555-6909</t>
         </is>
       </c>
       <c r="S73" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Laura Morris
-laura.morris@live.com
-(781) 555-5107</t>
+Richard M Lee
+richardlee@aol.com
+(857) 555-4818</t>
         </is>
       </c>
       <c r="T73" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Jonathan Powell
-jpowell@outlook.com
-(857) 555-9318</t>
+Carol Kelly
+carol.kelly@live.com
+(351) 555-2563</t>
         </is>
       </c>
     </row>
@@ -16948,25 +16953,25 @@
       <c r="R74" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Dorothy A Gutierrez
-dgutierrez@hotmail.com
-(508) 555-6421</t>
+Richard Gray
+richard.gray@aol.com
+(781) 555-8963</t>
         </is>
       </c>
       <c r="S74" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Donald O Castillo
-donald656@gmail.com
-(508) 555-1984</t>
+Jason I Foster
+jasonfoster@hotmail.com
+(774) 555-1948</t>
         </is>
       </c>
       <c r="T74" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Donna Murphy
-donna.murphy87@comcast.net
-(339) 555-9815</t>
+Olivia Richardson
+olivia.richardson97@msn.com
+(339) 555-6649</t>
         </is>
       </c>
     </row>
@@ -17042,25 +17047,25 @@
       <c r="R75" s="14" t="inlineStr">
         <is>
           <t>Chartered Organization Rep.
-Samantha Peterson
-speterson@aol.com
-(339) 555-3505</t>
+Frank Moore
+frankmoore@icloud.com
+(774) 555-5249</t>
         </is>
       </c>
       <c r="S75" s="14" t="inlineStr">
         <is>
           <t>Committee Chair
-Jonathan Wilson
-jwilson@hotmail.com
-(339) 555-5147</t>
+Ashley Garcia
+ashley.garcia@verizon.net
+(857) 555-5064</t>
         </is>
       </c>
       <c r="T75" s="14" t="inlineStr">
         <is>
           <t>Scoutmaster
-Olivia Castillo
-olivia.castillo12@hotmail.com
-(857) 555-3368</t>
+Frank V Brooks
+frank.brooks@comcast.net
+(617) 555-3266</t>
         </is>
       </c>
     </row>
